--- a/da12/day4_Lookup.xlsx
+++ b/da12/day4_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Acciojob\Modules\Excel\batch\da12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710AE2A-A62C-40FB-A22F-CC8318229106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86BC9E-B6B8-44D3-AFC0-4A5BF2A3296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Row" sheetId="7" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>VLookup</t>
   </si>
@@ -356,6 +356,24 @@
   <si>
     <t>=INDEX(B2:C7,MATCH(C11,C2:C7,0),1)</t>
   </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>K16:K19</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>L16:L19</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +454,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +761,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,6 +854,331 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99257</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114017</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174831</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077FE9C8-F121-12F0-12DB-91E6B1780E37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7839000" y="4285800"/>
+            <a:ext cx="14760" cy="20160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077FE9C8-F121-12F0-12DB-91E6B1780E37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7832880" y="4279680"/>
+              <a:ext cx="27000" cy="32400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399309</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52431</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C382A2-7C46-DE6B-CDF8-A20B6D54A95D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5739120" y="3813120"/>
+            <a:ext cx="1235160" cy="370440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C382A2-7C46-DE6B-CDF8-A20B6D54A95D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5733000" y="3807000"/>
+              <a:ext cx="1247400" cy="382680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347203</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528737</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59991</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F473C0A-487A-91DC-251B-6180B3F5678C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7504560" y="3883320"/>
+            <a:ext cx="763920" cy="307800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F473C0A-487A-91DC-251B-6180B3F5678C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7498440" y="3877200"/>
+              <a:ext cx="776160" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166671</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>387446</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131246</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D963E4-9352-3E52-FD12-E88087BD5A03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8488800" y="3769920"/>
+            <a:ext cx="803160" cy="312840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D963E4-9352-3E52-FD12-E88087BD5A03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8482683" y="3763800"/>
+              <a:ext cx="815395" cy="325080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>451243</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228137</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84497</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B4FB1E-DF65-2529-04F9-11C2155EE5A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7608600" y="4179240"/>
+            <a:ext cx="359280" cy="216000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B4FB1E-DF65-2529-04F9-11C2155EE5A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7602480" y="4173120"/>
+              <a:ext cx="371520" cy="228240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6988,7 +7338,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="361.1">7 359 3666,'0'0'5122,"126"-12"-4978,-90 7-128,3-2-32,-9 0-272,-9 0-384,-7 2-353,-11-7-1456,-3-3-1313</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="747.31">139 65 6003,'0'0'3377,"124"-60"-3345,-80 55-32,-4 5-224,-4 0-608,-7 10-2017,-10 14-1794</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="748.31">563 284 8100,'0'0'4306,"-126"46"-3810,93-13-448,3 3-96,7-2 48,4-1-784,5-2-241,1-4-912,2-4-352,1-11-960,0-9-369</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1106.65">292 356 4418,'0'0'8532,"78"-14"-8580,-40 35 112,0 5-176,-3 3-240,-3 2-881,1 0-95,-1-2-753,4-7-561,3-6-207</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1106.64">292 356 4418,'0'0'8532,"78"-14"-8580,-40 35 112,0 5-176,-3 3-240,-3 2-881,1 0-95,-1-2-753,4-7-561,3-6-207</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1615.74">908 376 4498,'0'0'4277,"-21"-11"-3175,-67-35-286,84 44-789,0 1 1,1-1-1,-1 1 0,0 0 0,0-1 1,0 2-1,0-1 0,0 0 1,0 1-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,-7 3-1,8-2-19,0 0-1,0 1 1,0-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,-2 6-1,1 0-11,0 1-1,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 1 0,1-1 0,0 0 0,2 16 0,-1-24-12,0 0 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 0 0,0 0-1,-1 0 1,1 0 0,3-1 0,3 2-24,-1-1 0,1-1 1,-1 0-1,0 0 1,10-2-1,-8-2 70,1 1 1,-1-2-1,0 1 1,0-1-1,0 0 0,-1-1 1,0 0-1,-1-1 0,1 1 1,-1-1-1,-1-1 0,1 1 1,-2-1-1,1 0 0,4-11 1,-17 39 77,1-1 0,0 1 0,2-1 0,0 2 0,-1 30 0,5-49-122,0 1-1,0-1 1,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,2 2 0,0 0-21,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,7 0 0,6 0-322,0-1-1,28-2 1,-43 1 287,10 0-111,0-2 1,1 1 0,-1-2-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1-1 1,-1 0-1,1-1 1,11-10-1,-14 10 175,0 0-1,-1 0 0,1 0 0,-2-1 0,1 0 0,-1-1 0,0 1 0,-1-1 0,0-1 0,0 1 0,-1 0 0,-1-1 0,5-18 0,-7 28 44,-1-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0-1,-17 8-43,12-4 34,-1 1-1,2 0 1,-1 1 0,1-1-1,-1 1 1,1 0 0,1 0 0,-1 1-1,1-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,1 1-1,-1-1 1,2 1 0,-1-1-1,1 1 1,0 0 0,0 0-1,1-1 1,0 1 0,2 9-1,-2-15-23,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,5 0-1,3 0 12,0-1-1,-1 1 1,1-1 0,0-1-1,-1 0 1,11-3 0,-2-3 4,0 0 0,0-2 0,-1 1 1,0-2-1,-1-1 0,0 0 0,-1 0 0,0-2 0,-1 0 1,0 0-1,-1-2 0,-1 1 0,-1-2 0,0 0 1,-1 0-1,-1 0 0,0-1 0,-2-1 0,0 0 1,-1 0-1,4-22 0,-3 13 632,-1-1-1,-1 1 1,0-40-1,-5 67-110,-1 17-395,-20 78-122,12-57 3,1 1 0,-4 53 0,10 88-1018,1-177 793,1 0 0,0 0-1,0 0 1,-1 0 0,2 0-1,-1 1 1,0-1 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,3 1 0,12-1-2940</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2020.87">1418 321 4978,'0'0'9397,"-36"-63"-9397,84 56-401,7 4 369,6 1-112,-1 0-512,-3-1 336,-4-1-272,-9 3-161,-9-1-799,-13 0-994,-14 2-1103</inkml:trace>
 </inkml:ink>
@@ -7051,7 +7401,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">130 17 3378,'0'0'5255,"0"0"-5177,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,-2 31 16,-3 0 1,0 0 0,-2-1 0,-2 0-1,-19 50 1,-13 44-34,41-122-121,-1-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-4 2 0,-15 9-6533,18-12 5140</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.95">659 83 3169,'0'0'5728,"0"-9"-4676,1-28-132,-1 36-860,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1-1 0,1 2-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,-1 1 1,-2-1 16,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 1-1,1-1 1,-6 4-1,2 0-51,0 1-1,0 0 1,1 0-1,0 0 1,0 1-1,1 0 1,0 0-1,0 0 1,1 1-1,0-1 1,0 1-1,-5 16 1,7-18-50,1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,0 0-1,0 0 1,0-1-1,1 1 1,0 0 0,0 0-1,0 0 1,1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,1 0-1,5 6 1,75 83-1072,-83-94 1109,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,-1 1 0,1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-2-1 0,-33 11 652,31-10-639,-7 1-151,-72 10-985,77-11 170,0-1 0,0 0 0,0 0-1,0-1 1,0 0 0,-9-2 0,2-5-3799</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.94">659 83 3169,'0'0'5728,"0"-9"-4676,1-28-132,-1 36-860,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1-1 0,1 2-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,-1 1 1,-2-1 16,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 1-1,1-1 1,-6 4-1,2 0-51,0 1-1,0 0 1,1 0-1,0 0 1,0 1-1,1 0 1,0 0-1,0 0 1,1 1-1,0-1 1,0 1-1,-5 16 1,7-18-50,1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,0 0-1,0 0 1,0-1-1,1 1 1,0 0 0,0 0-1,0 0 1,1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,1 0-1,5 6 1,75 83-1072,-83-94 1109,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,-1 1 0,1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-2-1 0,-33 11 652,31-10-639,-7 1-151,-72 10-985,77-11 170,0-1 0,0 0 0,0 0-1,0-1 1,0 0 0,-9-2 0,2-5-3799</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="912.94">577 17 6435,'0'0'3426,"109"-17"-2946,-69 17-480,-2 0-32,-6 0-609,-7 9-847,-6 6-929,-5 4-961</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1287.3">938 174 5394,'0'0'7001,"-18"15"-6233,-55 47-394,70-59-351,1-1 0,-1 0 0,0 1-1,1 0 1,0-1 0,0 1 0,-1 0 0,2 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 1 0,0-1 0,-1 6 0,2-8-23,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,1 1 0,5 2-42,0-1-1,-1 0 0,1 0 0,0-1 1,1 0-1,-1 0 0,0-1 1,14 0-1,-11 0-56,5-1 4,0 1 0,0-2 0,0 0 0,26-6-1,-39 6 93,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,-1-1-1,1-4 1,0 4 10,-1 0-1,0 1 0,0-1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 1,0 1-1,1-1 1,-1 1-1,-1 0 0,1 0 1,0-1-1,-1 2 0,1-1 1,-1 0-1,0 0 1,0 1-1,-6-4 0,0 0 87,0 2 0,0-1-1,-1 1 1,0 0 0,1 1-1,-1 0 1,-1 1 0,-9-1-1,28 4-1149,61 9-2881,59 4 2488,-127-14 1554,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 0 0,-1 1-1,1 0 1,0-1 0,-1 1-1,1-1 1,0 1 0,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1 1-1,-14 48 1884,9-33-1739,4-12-229,1 0-1,0 0 0,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,2 5-1,-1-8-26,0 0 0,-1 0-1,1-1 1,0 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 1-1,3-2 1,8 3-33,1-2 0,-1 0 0,1 0 0,-1-2 0,0 1 0,1-2-1,24-7 1,-33 8 49,0 0 0,0 0 0,-1 0-1,0 0 1,1-1 0,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0-1-1,-1 1 1,1-1 0,-1 1 0,-1-1 0,1 0-1,0 0 1,-1 0 0,1-7 0,-2 8 15,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 0,-3-5 1,1 3-121,0 1-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0-1,-1 1 1,1 0 0,-9-2 0,-1 1-1127,0 0 1,0 1-1,-26 0 1,-8 2-4349</inkml:trace>
 </inkml:ink>
@@ -7174,7 +7524,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">87 17 1617,'0'0'9297,"0"-4"-8443,-2 40-158,-2-1 0,-1 0 0,-12 40 0,-39 122-729,55-196-551,0 5-575</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="372.4">364 60 2577,'0'0'7054,"-3"-5"-6336,-11-9-467,5 23-89,-2 43-50,9-34-81,1 0 0,0 0 0,1 0 0,1 0 0,1 0 0,1 0 0,0 0 0,1-1 0,8 22 0,-61-38-3043,28-9-363,3-9-750</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="748.13">312 36 3265,'0'0'4771,"97"-34"-3859,-74 32-704,0 2-208,-2 0-480,0 5-1585,-2 12-2161</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1167.61">602 189 5843,'0'0'6098,"-14"17"-5265,-42 54-412,54-69-409,1 0-1,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1-1-1,1 1 0,0 4 1,0-5-9,1-1 1,-1 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,1 2 0,6 0-9,0 0 0,0 0 1,0-1-1,0 0 0,0-1 1,13 0-1,-13-1-16,-3 1-16,0 0-1,0-1 1,0 0-1,1-1 1,-1 1-1,-1-1 1,1 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 0 1,5-4-1,-8 6 29,0 0-1,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-4-3 0,-1-1 75,0 1 0,-1-1 0,0 1 0,0 1 0,-1-1 0,1 1 0,-1 1 0,0-1 0,0 1 0,-15-5 0,22 9-153,38 0-2631,-17 0 2120,-8-1 395,1 1 0,0 0-1,0 1 1,-1 1 0,16 3 0,-27-2 404,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 3 1,1 0 383,-1 29 861,0-22-1149,0 1-1,1 0 1,4 25 0,-3-38-290,-1 1 0,1 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,3-1 0,-1 0 6,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 0 1,0 1-1,0-1 1,1-1-1,-1 1 1,-1 0-1,6-6 1,-6 5-20,1 0 1,-1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,-2-8 0,2 9-20,-1 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,-5 1 1,-32-1-4282,21 1 692</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1167.6">602 189 5843,'0'0'6098,"-14"17"-5265,-42 54-412,54-69-409,1 0-1,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1-1-1,1 1 0,0 4 1,0-5-9,1-1 1,-1 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,1 2 0,6 0-9,0 0 0,0 0 1,0-1-1,0 0 0,0-1 1,13 0-1,-13-1-16,-3 1-16,0 0-1,0-1 1,0 0-1,1-1 1,-1 1-1,-1-1 1,1 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 0 1,5-4-1,-8 6 29,0 0-1,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-4-3 0,-1-1 75,0 1 0,-1-1 0,0 1 0,0 1 0,-1-1 0,1 1 0,-1 1 0,0-1 0,0 1 0,-15-5 0,22 9-153,38 0-2631,-17 0 2120,-8-1 395,1 1 0,0 0-1,0 1 1,-1 1 0,16 3 0,-27-2 404,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 3 1,1 0 383,-1 29 861,0-22-1149,0 1-1,1 0 1,4 25 0,-3-38-290,-1 1 0,1 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,3-1 0,-1 0 6,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 0 1,0 1-1,0-1 1,1-1-1,-1 1 1,-1 0-1,6-6 1,-6 5-20,1 0 1,-1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,-2-8 0,2 9-20,-1 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,-5 1 1,-32-1-4282,21 1 692</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7475,7 +7825,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">78 13 4290,'0'0'7441,"0"-12"-1553,6 24-5902,1-1-1,0 1 1,0-1 0,1 0 0,1-1 0,0 1 0,0-2-1,1 1 1,0-2 0,0 1 0,23 12 0,-16-8-76,0 0 1,-1 0-1,25 27 0,-41-39 81,1-1 0,0 1 0,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,-35 24 161,27-20-128,-32 19 226,8-6-126,1 1 0,1 2 0,1 2 0,-32 29 0,60-49 314,-13 16-3196,15-18 2596,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,29 0-5280</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.25">691 135 496,'0'0'7486,"2"-4"-6419,8-6 40,-5 12 905,-6 34-398,-5-11-1138,0-1-1,-2 0 1,0 0 0,-2-1-1,0 0 1,-17 25-1,-11 28-157,28-57-468,-7 20 454,13-13-3494,8-23-985,8-3 2086,-9 0 902,22 0-4843</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="724.03">1092 155 6643,'0'0'7502,"-16"0"-7198,-51 1-250,65-1-56,0 1 1,1 0 0,-1 0-1,0-1 1,0 1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,-1 1 1,1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 2-1,-1 5 0,0 6-22,1-1 0,0 1 0,1 0 0,1-1 1,0 0-1,0 1 0,2-1 0,0-1 0,0 1 1,1-1-1,1 0 0,11 16 0,-18-29-14,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-17-5-3162,-3-10-1266</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1113.18">935 234 5010,'0'0'5699,"138"-62"-5651,-92 62-48,-1 0-368,-1 0-1457,-4 6-1361,-5 2-2176</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1113.17">935 234 5010,'0'0'5699,"138"-62"-5651,-92 62-48,-1 0-368,-1 0-1457,-4 6-1361,-5 2-2176</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1517.77">1374 246 5090,'0'0'8359,"-17"14"-7687,-54 43-381,68-55-276,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 0,0 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,0 0 1,-1 0-1,0 3 0,2-4-9,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,1 2-1,1-1-7,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,7 1 1,-3-1-13,-1 0 0,1-1 0,-1 0-1,1 0 1,-1-1 0,1 0 0,13-3 0,-19 3 14,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0-3 0,0 1 47,1 0 1,-1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0 0 1,-1-1-1,1 1 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-5-1 0,58 1-3285,5 0 2856,-30 1 487,0 0-1,0 2 1,35 5 0,-59-6-32,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 1 0,-14 34 998,5-14-875,9-21-198,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,1 2 0,2-2-18,-1 1 1,1-1-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,-1-1 0,5-1 1,4 1 0,1 0 1,0-1 0,-1-1-1,1 0 1,-1-1 0,0 0 0,0-1-1,0 0 1,0-1 0,12-7-1,-19 9 45,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,-1 0-1,0 0 0,1-12 0,-3 16-17,1 1 1,0-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,0-1-1,1 1 1,-1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,-1 1 1,-56-4-216,47 4 80,0 0-256,0 1 0,1 0-1,-1 1 1,-21 7 0,-45 21-5729,23-8-1288</inkml:trace>
 </inkml:ink>
 </file>
@@ -7539,8 +7889,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">92 310 4018,'1'3'12471,"-2"22"-12307,-8 68-26,-32 144 0,38-224-126,-9 53 22,6-27-126,-14 46 1,37-108-14588</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="386.91">509 181 5394,'0'0'6611,"-14"-5"-5829,-42-14-352,55 19-415,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 2 0,-4 33 219,5-32-200,-1 0-35,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,2 0 1,-1 0-1,0-1 1,1 1-1,-1-1 1,1 0-1,6 3 1,9 2-128,0 0 1,0-2 0,1 0-1,26 3 1,29 8-10,-75-15 154,1-1-1,0 0 0,-1 0 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,-2 1-1,-25 27 473,20-24-687,0 1-1,-1-1 0,1-1 0,-1 1 0,1-1 1,-14 3-1,19-5-89,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 0,-1 1 1,2-1-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 1,0 1-1,-1-1 0,1 0 1,-2-2-1,-9-29-3854</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="754.99">509 181 4098,'19'-84'3473,"-4"67"-2480,10 0-129,4 1 833,5 1-528,2 1-721,2 4-448,-1 3-128,-3 7-1025,-1 0-1216,-7 0-784,-8 7-1313</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1124.13">862 104 2273,'0'0'7355,"-11"19"-5482,-32 59-373,40-74-1426,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,2 0 0,-1-1 0,0 1 0,1-1 0,0 1 0,2 6 0,-2-8-91,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,3-1-1,1 1-33,0-1 0,0 0-1,0 0 1,0-1 0,0 1-1,0-2 1,-1 1 0,1-1 0,0 0-1,-1 0 1,0-1 0,0 0 0,0 0-1,6-6 1,-8 7 62,0-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,-2-7-1,2 9 49,-1 1-1,0 0 1,-1 0 0,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 1 0,-5-1 0,0 0-71,0 0 0,-1 0 0,1 1 1,0 0-1,-1 1 0,-11 1 0,17-1-188,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 1-1,-1 11-4159</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1125.13">1093 175 7203,'0'0'6761,"-5"15"-6300,-17 51-399,21-64-78,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,1 3 0,-2-4-18,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 1 1,0-1 0,2 0-1,1 0-73,0-1 1,1 1-1,-1-1 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,7-4 1,-6 2 133,0 0 1,0 0 0,-1 0 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1-1-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,-1 1-1,0-7 1,-1 11 55,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-4-1 0,-7-2-2,-1 2-1,1 0 1,-16 1-1,23 0-198,5 0 52,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,-2 26-3209,2-20 2084,0 25-3739</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1124.12">862 104 2273,'0'0'7355,"-11"19"-5482,-32 59-373,40-74-1426,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,2 0 0,-1-1 0,0 1 0,1-1 0,0 1 0,2 6 0,-2-8-91,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,3-1-1,1 1-33,0-1 0,0 0-1,0 0 1,0-1 0,0 1-1,0-2 1,-1 1 0,1-1 0,0 0-1,-1 0 1,0-1 0,0 0 0,0 0-1,6-6 1,-8 7 62,0-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,-2-7-1,2 9 49,-1 1-1,0 0 1,-1 0 0,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 1 0,-5-1 0,0 0-71,0 0 0,-1 0 0,1 1 1,0 0-1,-1 1 0,-11 1 0,17-1-188,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 1-1,-1 11-4159</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1125.12">1093 175 7203,'0'0'6761,"-5"15"-6300,-17 51-399,21-64-78,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,1 3 0,-2-4-18,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 1 1,0-1 0,2 0-1,1 0-73,0-1 1,1 1-1,-1-1 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,7-4 1,-6 2 133,0 0 1,0 0 0,-1 0 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1-1-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,-1 1-1,0-7 1,-1 11 55,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-4-1 0,-7-2-2,-1 2-1,1 0 1,-16 1-1,23 0-198,5 0 52,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,-2 26-3209,2-20 2084,0 25-3739</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1507.34">1408 255 6515,'0'0'11493,"-5"-2"-10756,126 78-1631,-109-70 710,-1 0-62,0 0 1,-1 0-1,0 1 0,0 0 0,15 14 1,-23-20 269,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-3 3 0,-15 17 775,-2-1-1,-40 33 0,-7 6-608,57-50-1025,1 1 0,1 0 0,-17 25 0,20-24-2585,5-7-2172</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3839.36">1798 632 3105,'0'0'6769,"-1"-6"-5886,-7-25 5502,1 40-5919,-4 30-503,2 0 0,2 1 0,2 0 0,-1 57 0,4-44-484,-17 89 0,19-141 514,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-2 0,-21-29 31,20 29-105,-38-88 303,35 99-335,5 11-4,1-15 78,0 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,5 5-1,-8-8 24,1 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,3-2 1,2-3-139,0 0 0,-1-1 0,0 1 0,0-1 1,-1 0-1,0-1 0,0 1 0,0 0 0,3-14 0,6-42-6148,-13 52 2309</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4628.39">163 1096 5651,'0'0'4850,"-2"-11"-1998,-9 157-698,1-24-1427,5-71-257,2-16-1359,2-11-3065,2-19 804,7-4-647</inkml:trace>
@@ -8272,7 +8622,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">240 0 4306,'0'0'9474,"-3"8"-9314,-53 157 1197,-112 399-1703,164-543-985,0 1 1,0 34 0,4-55 1137,0 0 1,0 0 0,0 0-1,-1 0 1,2 1 0,-1-1-1,0 0 1,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,3 2 0,28 3-5208</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.42">521 198 1697,'2'-15'6128,"0"6"-5567,-1-2-30,1 0-1,1-1 0,0 1 1,6-14-1,-7 20-414,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 1 1,5-3-1,4 1-98,0 0 0,1 1 1,-1 0-1,24-1 0,-29 4-27,-1-1 0,0 1 0,1 1 0,-1-1 0,0 1-1,0 1 1,0 0 0,1 0 0,10 5 0,-17-6 18,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,-1 3 0,-1 4 124,-1 1 0,0-1-1,0 0 1,-1-1 0,-11 16 0,-4 4 54,1-3-46,2 0-1,-19 38 1,32-57-166,1 1 0,0 0 0,0 0 1,1 0-1,0 0 0,0 0 0,1 1 0,0-1 1,1 0-1,0 1 0,0-1 0,0 0 0,4 16 1,-2-18-13,1 0 0,-1 0 0,1 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 1,10 7-1,58 43-358,-44-35 265,-21-15 115,-1-1 21,1 1 1,-1 0 0,0 0-1,0 1 1,8 11-1,-13-16 31,0 0 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,1 1-1,0-1 1,0 1 0,-2 0-1,-36 19 802,-1-2 0,-43 14 0,40-17-1821,1 2 0,-42 24 0,55-24-2730,9-6-1781</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.41">521 198 1697,'2'-15'6128,"0"6"-5567,-1-2-30,1 0-1,1-1 0,0 1 1,6-14-1,-7 20-414,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 1 1,5-3-1,4 1-98,0 0 0,1 1 1,-1 0-1,24-1 0,-29 4-27,-1-1 0,0 1 0,1 1 0,-1-1 0,0 1-1,0 1 1,0 0 0,1 0 0,10 5 0,-17-6 18,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,-1 3 0,-1 4 124,-1 1 0,0-1-1,0 0 1,-1-1 0,-11 16 0,-4 4 54,1-3-46,2 0-1,-19 38 1,32-57-166,1 1 0,0 0 0,0 0 1,1 0-1,0 0 0,0 0 0,1 1 0,0-1 1,1 0-1,0 1 0,0-1 0,0 0 0,4 16 1,-2-18-13,1 0 0,-1 0 0,1 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 1,10 7-1,58 43-358,-44-35 265,-21-15 115,-1-1 21,1 1 1,-1 0 0,0 0-1,0 1 1,8 11-1,-13-16 31,0 0 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,1 1-1,0-1 1,0 1 0,-2 0-1,-36 19 802,-1-2 0,-43 14 0,40-17-1821,1 2 0,-42 24 0,55-24-2730,9-6-1781</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8421,7 +8771,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">38 82 64,'0'0'784,"-21"-1"-560,18 1-47,-3 0-177,-2 10-641</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542.53">38 82 1265,'-1'-82'2275,"15"94"4252,19 4-5253,37 7-1522,-21-16 582,1-3-1,0-1 1,82-8-1,-86 3-120,26 2-394,-50 1-600,0-1 0,0-1 0,-1 0 0,1-2 0,-1 0 0,1-2 0,20-7 0,-41 12 621,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1-1 1,-1-2-1439</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.68">386 17 2465,'0'0'7777,"-6"-8"-6051,4 38-1615,-2 0 0,-1-1 0,-2 0 0,-13 38 0,-4 21 297,14-44-289,2-15 127,1 1 0,2 0-1,-2 42 1,7-71-105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.67">386 17 2465,'0'0'7777,"-6"-8"-6051,4 38-1615,-2 0 0,-1-1 0,-2 0 0,-13 38 0,-4 21 297,14-44-289,2-15 127,1 1 0,2 0-1,-2 42 1,7-71-105</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3151.48">189 727 1265,'0'0'4487,"8"-16"267,87-3-3697,192-12 0,-210 25-900,-76 6-333,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,-1-1 0,0 2 1,-5 8-2787</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3520.49">499 648 2609,'0'0'4861,"-4"7"-4746,-14 35 155,1 0 0,3 1 0,2 1 0,-12 72 0,-11 44 754,33-156-927,2-16-7560</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4873.26">222 1230 2977,'-1'-2'7602,"11"-1"-6269,353-33-890,-266 15-520,-95 20-1255,-7 1-3843,-12 3 1901</inkml:trace>
@@ -8459,7 +8809,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 525 6147,'0'0'7731,"0"-12"-6877,0-58 1531,16 98-2420,69 189 35,14 33-248,-98-249 239,-1 0-1,0 1 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,4 1 1,-4-2 39,1 0 1,0 0-1,0-1 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-4-1,162-520 469,-158 497-236,-3 18-3621,-1 29-1222,-1 13-1087</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="382.63">716 693 7796,'0'0'6627,"-9"0"-6563,35 4-64,15-1 272,6-1 64,3-2-176,0 0-160,-7 0 0,-1 0-608,0 0-417,2-9-608,-2-1-1344,-7-2-993</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="740.81">1039 443 8884,'0'0'6392,"0"0"-6397,-1-1 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,7 11-1,1-1 1,0 0-1,1 0 1,0-1-1,1 0 1,15 11-1,-2-1 18,-3-1-8,1-2-17,30 35 0,-48-48 11,0 1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 11 0,-3-13 32,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,-1-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-4 2 0,-12 8 320,0-1 1,-30 13 0,27-13-161,-32 13 164,33-16-330,0 2 0,0 0 1,-29 21-1,42-22-1564,11-5-2223,17-3-1075,11-5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1092.61">1549 549 3474,'0'0'11026,"0"-7"-9593,0-22-281,0 29-1113,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,16 38-34,-2-1 0,-1 2 0,11 63-1,-12-49 23,23 63 0,-34-114-45,-1 1-1,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0-1,2 2 1,-3-3 23,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,1-2-1,4-5 82,0 0 1,-1 0-1,1 0 1,-2-1-1,7-10 1,-2 3-80,119-232 661,-74 136-664,-45 93 969,1 5-4060,0 13-2241,-1 18-422,-3 10-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1092.6">1549 549 3474,'0'0'11026,"0"-7"-9593,0-22-281,0 29-1113,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,16 38-34,-2-1 0,-1 2 0,11 63-1,-12-49 23,23 63 0,-34-114-45,-1 1-1,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0-1,2 2 1,-3-3 23,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,1-2-1,4-5 82,0 0 1,-1 0-1,1 0 1,-2-1-1,7-10 1,-2 3-80,119-232 661,-74 136-664,-45 93 969,1 5-4060,0 13-2241,-1 18-422,-3 10-50</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2053.47">1996 676 5170,'0'0'7759,"6"1"-6874,9-1-486,0 1 0,1-2-1,-1 0 1,0-1 0,24-6-1,-36 7-399,1 1 0,-1-2 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0-1 0,-1 1-1,0 0 1,0 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0-7-1,-1 8-3,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0 0-1,1 0 1,-4 0 0,-2 0 11,1 0 0,-1 0 0,0 1-1,0 0 1,0 0 0,-9 3 0,11-1-15,0 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,1 1 0,-1 0-1,0 1 1,1-1-1,0 0 1,0 1 0,0 0-1,1 0 1,-1 0-1,1 0 1,1 0 0,-3 7-1,2-4-18,0 0-1,0 1 1,1-1-1,0 1 1,0-1-1,1 1 1,0-1-1,0 1 1,1-1-1,3 14 0,-2-19 14,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1 0,1-2 0,-1 1-1,0 0 1,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,6 0-1,-3 1 62,0-1-1,0 0 0,1 0 1,-1-1-1,1 0 0,-1 0 1,0-1-1,1 0 0,-1 0 1,11-4-1,-16 3-9,1 1 1,-1-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0-1-1,-1 1 1,1 0-1,0 0 0,-1-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 1,0 1-1,-1-1 0,0-5 1,1 4 19,0-1 1,0 1-1,0 0 0,0-1 1,1 1-1,0 0 1,0 0-1,0 0 0,0 0 1,3-5-1,-2 6-103,0 1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1 0 0,4-1 0,42-9-563,-38 9 428,27-4-315,76-2 1,-114 37 995,-12 19 508,9-41-953,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0-1 0,1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,3 8 1,-2-14-57,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,1-1-1,40-2-26,-31 1 29,0-2 0,0 0 1,0 0-1,-1-1 0,1 0 1,-1-1-1,-1-1 0,1 1 1,-1-2-1,16-14 0,-11 8-14,-1 0 0,0-1 0,-1-1 0,-1 0 0,20-35 0,-15 15 156,-1-2 0,-2 0 1,-2-1-1,-1 0 0,-2 0 1,4-45-1,-29 169-596,8-49 466,-5 68 0,11-84 0,1-6-56,0 0 0,1-1 0,1 1 0,2 15 0,-3-26 10,1-1 0,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,3 0 1,0-1 24,1 1 0,-1-1 0,1 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,-1-1 0,1 1 0,-1-2 0,8-7 0,-6 4 39,0 1-1,-1-1 1,-1 0 0,1-1 0,-1 1-1,0-1 1,-1 0 0,0 0 0,-1 0 0,0-1-1,0 0 1,2-16 0,-7 175 776,3-83-752,-2-63-120,2 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1-1-1,1 1 1,3 1 0,-4-2-145,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,1-2 0,7-21-3512</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2443.47">2572 453 7523,'0'0'6659,"121"-33"-6771,-54 21-1600,-1-5-2290,-3-2-2705</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2444.47">3082 303 2449,'0'0'11509,"12"-15"-13766,1 27-2689,2 7-656</inkml:trace>
@@ -8511,7 +8861,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7346.05">2373 185 6419,'0'0'6056,"0"-7"-5645,-3-10-370,-4 16 4,-19 28 153,17-15-106,-9 9 117,1 1-1,-24 42 1,35-54-187,1 1 0,1 0-1,0-1 1,0 2 0,1-1-1,1 0 1,-1 1 0,2-1-1,-1 17 1,2-26-23,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,3 1 0,8 1-28,0 0 0,1-1-1,26-1 1,-27-1 22,-2 0-58,1-1 0,0 0 0,0 0 0,-1-1 1,0-1-1,1 0 0,-1-1 0,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,12-12 0,-9 8-3,-1-1 0,0 0 0,-1-1 0,0 0 0,-1 0-1,-1-1 1,0-1 0,13-29 0,-22 42 97,1 1 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,-1-2 0,1 2-11,-1 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,1 0-1,-2 1 1,-3 1 8,-1 0 0,1 0 1,0 0-1,0 1 0,1 0 0,-1 0 0,-5 5 1,3-1-18,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 1 0,0 0 0,1-1 0,0 1 0,0 0 0,1 1 0,0-1 0,1 0 0,-1 1 0,2-1 0,0 1 0,0-1 0,0 1 0,4 13 0,-4-20-3,1-1 0,-1 0-1,1 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,0 0 1,0-1 0,0 0-1,4 3 1,-2-2 2,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1-1,0 1 1,7-1 0,-6 0-43,1 0 0,-1-1 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0-1 0,-1 1-1,0-1 1,7-5 0,-7 0-16,0 1 0,0-1-1,-1 0 1,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,-1 0-1,1 1 1,-1-1 0,-1-14 0,0 19 69,1-1 1,-1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 1 0,-1-1 1,1 1-1,-1-1 1,-1 1-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,-1 1 0,1-1 1,-1 1-1,0 0 1,-1 0-1,-4-3 0,8 6-2,0 0 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 1-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1-1,1 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0-1,0 3 1,0-1-41,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-2 0,1 1 0,2 5 0,0-5-22,0 0 0,0-1 1,0 1-1,1 0 0,-1-1 1,1 0-1,-1 0 1,1-1-1,0 1 0,-1-1 1,1 0-1,0 0 0,0-1 1,0 1-1,6-1 1,5 0-100,1 0 0,-1-1 0,24-4 0,-31 3 45,0 0 1,0-1 0,0 0-1,0-1 1,-1 0-1,1-1 1,-1 1 0,0-2-1,0 1 1,-1-1-1,1 0 1,-1 0 0,-1-1-1,1 0 1,-1 0 0,-1-1-1,6-8 1,-4 5 204,-1-1 1,0 0 0,-1 0-1,7-24 1,-8 21 680,-1 0 1,-1 0-1,0 0 0,-1-16 0,-12 46-12,-3 7-726,2 1 0,0-1 0,2 2 0,0-1 0,2 2 0,1-1 0,-7 38 0,11-40-574,0-1 1,2 1-1,0 0 1,2 1-1,4 28 1,-4-45-31,0 0-1,1 0 1,-1 0 0,1-1 0,1 1 0,4 8 0,23 23-4366</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7700.38">3150 236 5090,'0'0'4048,"17"-9"-3267,59-27-549,-74 34-227,1 1 0,0 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 1 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,-1 1 0,1-1-1,0 1 1,-1 0 0,1-1-1,0 2 1,-1-1 0,1 0-1,-1 0 1,0 1 0,1-1-1,-1 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0 1-1,0-1 1,-1 0 0,1 0-1,-1 1 1,0-1 0,2 3 0,0 3 75,0-1 1,0 1 0,0 0 0,-1 0 0,-1 0 0,1 0 0,-1 0-1,-1 0 1,0 15 0,-1-17 44,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0-1 0,-8 9 0,-5 3 445,-1 0 0,-29 18 0,32-24-158,0 0 0,1 2 0,0 0 0,-18 20 0,31-31-404,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0 2-1,1-3-9,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,1 1-1,11 1-156,-1-1-1,0 0 1,24-1-1,-18 0-191,215 0-9196,-158 0 3642</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8411.27">3914 439 6995,'0'0'3484,"-18"2"-1941,5-2-1284,0 2 1,0 0-1,0 0 1,1 2 0,-23 7-1,30-9-213,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0-1,0 1 1,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 7 0,2-7-41,-1 0-1,1-1 1,0 1 0,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,1-1-1,-1 1 1,1-1 0,-1 0-1,1-1 1,0 1 0,0 0-1,0-1 1,0 0 0,1 0-1,-1-1 1,7 3 0,3 0-74,-1 0 0,1-1 0,0 0 1,0-1-1,0-1 0,0 0 0,0-1 1,0 0-1,23-5 0,-29 3 48,-1 0-1,0-1 1,0 0 0,1 0-1,-2-1 1,1 1 0,0-2-1,-1 1 1,0-1 0,0 0-1,0 0 1,0-1 0,-1 0-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 0 0,0 1-1,-1-2 1,0 1 0,0 0-1,-1-1 1,0 1 0,0-1-1,-1 1 1,0-1 0,0-12-1,-2 19 44,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,-2 1 0,-42 7 72,39-4-76,1-1 1,0 0-1,0 1 1,0 0-1,0 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,1 1 1,0-1-1,0 1 1,0-1-1,1 1 1,0 0-1,-2 8 1,3-12-13,0 1 0,0 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 1,-1-1-1,1 1 0,0-1 0,3 1 0,3 1-17,0-1 0,1 0 1,-1-1-1,0 0 0,0 0 0,0-1 0,0 0 0,1-1 1,-1 0-1,-1 0 0,1-1 0,0 0 0,-1 0 0,1-1 0,-1 0 1,14-10-1,-14 7-29,0 0 1,0 0-1,-1-1 1,0 0-1,0 0 1,-1-1 0,0 0-1,-1 0 1,0 0-1,0 0 1,-1-1-1,0 0 1,-1 0-1,4-15 1,-4 11 0,0 0 1,-1 0 0,-1 0-1,0-28 1,-1 39 42,0 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,-5-2-1,1 2 2,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,-15 4 0,20-5-14,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,1 4 1,-1-5-15,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 0,3 0 0,38 1-138,-32-1 127,6 0-190,0-1 1,0 0-1,0-1 1,0-1-1,0 0 1,0-2 0,-1 1-1,25-13 1,-32 13 199,0 0 0,0-1-1,0-1 1,-1 1 0,0-1 0,0 0 0,0-1 0,-1 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,-1 0-1,1 0 1,-1 0 0,5-16 0,-2-4 476,0-1 0,-2 1 0,-1-1 0,0-56 0,-19 110 544,-11 26-496,1 1 0,-33 106 1,48-120-706,-9 66 0,16-76-1168,2 0 0,3 57 0,4-51-3631</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8813.35">4538 345 7908,'0'0'2513,"22"-9"-2161,69-24-155,-87 32-173,0 0 1,-1 0-1,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,4 4 0,-6-5 15,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-3 2 0,-5 3 179,1 1-1,-1-1 0,-1-1 1,1 0-1,-14 6 0,14-7-92,-1 0-1,1 1 0,1-1 1,-1 2-1,1-1 0,-12 13 1,19-17-136,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0-1,1-1 1,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,1 0 0,0 3 0,6 4-106,0 0 1,0 0-1,17 12 1,-11-9 27,-7-5 54,-1 0 1,0 0 0,0 1 0,-1 0-1,5 7 1,-9-13 55,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,-2 0 0,-12 7 336,0-1 0,0-1 1,-1 0-1,0-1 0,-23 4 1,26-7-666,0 0 0,0 1 0,1 1 0,-1 0 0,1 1 0,0 1 0,0 0 0,0 0 0,1 1 0,-14 11 0,17-9-4485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8813.34">4538 345 7908,'0'0'2513,"22"-9"-2161,69-24-155,-87 32-173,0 0 1,-1 0-1,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,4 4 0,-6-5 15,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-3 2 0,-5 3 179,1 1-1,-1-1 0,-1-1 1,1 0-1,-14 6 0,14-7-92,-1 0-1,1 1 0,1-1 1,-1 2-1,1-1 0,-12 13 1,19-17-136,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0-1,1-1 1,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,1 0 0,0 3 0,6 4-106,0 0 1,0 0-1,17 12 1,-11-9 27,-7-5 54,-1 0 1,0 0 0,0 1 0,-1 0-1,5 7 1,-9-13 55,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,-2 0 0,-12 7 336,0-1 0,0-1 1,-1 0-1,0-1 0,-23 4 1,26-7-666,0 0 0,0 1 0,1 1 0,-1 0 0,1 1 0,0 1 0,0 0 0,0 0 0,1 1 0,-14 11 0,17-9-4485</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9691.67">5325 589 7155,'0'0'5445,"-14"4"-4772,7 0-555,1 1 1,0 0 0,0 0 0,0 1-1,1-1 1,0 1 0,0 0 0,0 1-1,0 0 1,1-1 0,1 1 0,-1 0-1,-3 11 1,2-3-58,1 0 0,1 1 0,0-1 0,1 1-1,0 31 1,2-45-56,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,3 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1-1 0,-1 1 0,8 0 0,9 1-54,0-1-1,0 0 1,25-3-1,-32 0-40,-3 0 77,-1 0 0,0-1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-2 0 0,1 0 0,-1 0 0,7-18 0,-12 27 35,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,-19 14-55,19-14 36,-6 5 7,-1 1 0,1 0 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0-1,0 1 1,0 0 0,1-1 0,0 1 0,1 1 0,-1-1 0,1 0 0,1 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,3 15 0,-2-21-4,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,3 0-1,53 1 27,-43-2-27,-7 0-24,0 0 0,0-1-1,-1 0 1,1 0 0,0-1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,0 0 0,0-1-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 0 0,0 0-1,0-1 1,-1 1 0,9-13-1,-8 8-9,0 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,-1 0 0,0-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,-2-23 0,1 33 26,0 0 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,-2 0 1,1-1-3,0 0 1,0 1-1,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 1 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,0 1-1,-1 2 0,3-4-10,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 0 0,2 1 1,5 1-47,-1-1 1,1-1 0,0 0 0,0 0 0,11-2-1,4 1-211,-13 1 180,0-1-1,0 0 1,0-1 0,0 0 0,0-1 0,0 0-1,-1 0 1,1-1 0,-1 0 0,0-1-1,0 0 1,-1 0 0,1-1 0,-1 0-1,0 0 1,-1-1 0,0 0 0,0-1 0,0 0-1,-1 0 1,0 0 0,-1 0 0,8-16-1,-2 2 267,-2-1 0,-1 0-1,-1 0 1,0-1-1,-2 0 1,-1 0 0,-1 0-1,0-45 1,-3 71-84,-1 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,-1 3-1,-6 6-23,-12 28 58,1 0 1,2 0-1,1 2 1,3 0 0,-18 79-1,27-89-1670,1 1 0,1 51 0,5-41-4429</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10078.12">6297 515 6019,'0'0'6059,"-6"15"-5163,3-7-772,-27 77 438,28-78-540,1 0-1,-1-1 1,1 1-1,0 0 1,1 0-1,0 0 1,0 0-1,0-1 1,1 1-1,0 0 1,0 0-1,4 11 1,-4-16-35,1 0-1,-1-1 1,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0-1,0 1 1,0-1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,4-1 0,2-1-124,-1-1 1,1 1-1,0-1 1,-1 0-1,0-1 1,0 0-1,8-7 0,-2-1 155,0 0 0,-1-1 0,0 0 0,-1-1 0,-1 0 0,0-1 0,8-20 0,-26 104 954,-13 13-237,-55 196-270,73-265-843,-1 0 0,0 0 0,-1-1-1,0 0 1,-1 0 0,-1 0 0,1-1 0,-2 0 0,1 0-1,-1-1 1,-10 9 0,-26 13-4790</inkml:trace>
 </inkml:ink>
@@ -8547,7 +8897,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6957.35">1639 1484 4162,'0'0'6269,"18"4"-5847,59 10 375,147 7-1,103-16 96,-159-4-853,996 62 257,168 66-192,-576-58 756,31 3-95,-643-54-769,277 30 24,-186-49-129,-119-2 71,77-11-1854,-192 12 1744,27-3-321,-27 4 385,-1-1 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0-1 0,1 1 1,-1 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,-13-10-2425</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8145.87">2971 116 3410,'0'0'3823,"0"-16"-2858,0-40-225,0 13 1981,-16 627-784,6-337-1780,6-114-117,-20 335 19,13-354 501,-6-1-1,-34 121 0,39-183-273,2 1 1,3 0-1,1 0 1,3 73-1,3-34-259,-2-110-8359,-8-1 1100</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10083.67">325 320 5763,'0'0'5981,"-10"-6"-5333,-30-19-421,38 24-213,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 1 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 1,1 0-1,-4 2 0,-28 31 59,23-21 29,-8 6 18,-14 15 360,-48 67 0,73-90-441,0 0 1,0 0-1,1 0 0,1 1 0,0 0 0,1 0 0,0 1 0,1-1 1,0 1-1,1-1 0,-1 19 0,3-29-35,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 1,2 1-1,0-1-7,1 0 1,-1 0 0,0 0-1,1-1 1,-1 1 0,1-1-1,0 0 1,6 1-1,7-1-48,-1-1 1,1 0-1,30-5 0,-35 2-56,0 0 1,-1 0 0,0-2 0,1 1-1,-2-1 1,1-1 0,-1 0-1,0-1 1,0 0 0,0-1 0,-1 0-1,0 0 1,14-18 0,-11 11 31,0-1 0,-2-1-1,0 1 1,0-2 0,-2 0 0,0 0 0,-1-1 0,6-21 0,-17 173 1881,4-130-1802,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1-1,1 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,3 0 0,2 0 0,0 1-1,0-2 1,0 1 0,-1-1 0,1 0 0,0-1 0,0 0-1,-1 0 1,1 0 0,12-8 0,-15 7-2,-1 0-1,1-1 1,-1 1 0,0-1-1,0 0 1,0-1 0,-1 1 0,1-1-1,-1 1 1,0-1 0,0 0-1,-1 0 1,1-1 0,-1 1 0,-1 0-1,1-1 1,-1 1 0,1-1-1,-2 1 1,1-1 0,-1 0 0,1 1-1,-2-1 1,1 0 0,-1 1-1,1-1 1,-2 0 0,1 1 0,0-1-1,-1 1 1,0 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,0 1-1,0-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 1 0,0-1-1,-1 1 1,0-1 0,0 1-1,0 1 1,0-1 0,0 1 0,0 0-1,-1 0 1,-7-2 0,5 3 28,0-1 1,1 1-1,-1 1 1,0-1-1,0 1 1,0 0 0,0 1-1,0 0 1,-12 3-1,17-3-25,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,1 1 0,1 4 0,-1-4-14,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0-1-1,3 1 0,12 1-126,1 0 0,34-1 1,-39-1 27,0 0-19,0-1 1,0-1 0,0 0-1,0-1 1,-1 0-1,1-1 1,-1 0-1,0-1 1,0-1 0,-1 0-1,17-11 1,-21 11 75,0 1 0,-1-2 1,1 1-1,-1-1 1,0 0-1,-1 0 0,0-1 1,0 0-1,0 0 0,-1-1 1,-1 1-1,1-1 1,-1 0-1,-1 0 0,0-1 1,0 1-1,1-11 0,6-78-158,-10 88 242,0 1 0,0 0 0,-1 0 1,0-1-1,-1 1 0,0 0 0,0 0 0,-6-13 0,8 22-11,0 0-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,0 2-1,-13 26 64,3 5 65,2 1-1,1 0 1,-4 58 0,5 106-104,6-189-83,0 4-421,1 0 1,0 1 0,5 23-1,-5-31-64,1-1-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 1,5 6-1,14 11-4377</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10440.45">1152 186 7619,'0'0'3853,"-1"20"-2530,-8 97 111,-6 163-213,15-279-1708,0 8 560</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10440.44">1152 186 7619,'0'0'3853,"-1"20"-2530,-8 97 111,-6 163-213,15-279-1708,0 8 560</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11510.2">329 1020 2177,'0'0'6862,"1"-10"-5675,4-31-373,-5 40-754,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,-1 0 0,-29 4 439,25-1-451,0 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 1-1,0 0 1,1 1 0,-7 8 0,1 1 106,0 1-1,-14 31 0,19-32-89,1-1 0,0 1 0,1 0 0,1 0 0,0 0 0,1 0 0,2 23 0,-1-36-60,0 1 0,0-1-1,0 1 1,1-1-1,-1 0 1,1 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0 0,3 2-1,0-1-2,0 0 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,8 1 1,-1-1-27,0 0 0,0-1 0,0-1 1,0 1-1,0-2 0,0 0 1,0-1-1,16-5 0,-10-1-73,-1-1 0,-1-1-1,0-1 1,0 0-1,-1-1 1,-1 0 0,0-2-1,-1 1 1,0-2-1,-1 1 1,-1-2 0,-1 0-1,0 0 1,-1-1-1,-1 0 1,6-20 0,-9 3 607,-5 34-183,0 6-89,-3 8-190,-2 9 20,1 1-1,2 1 0,0-1 1,2 31-1,0-52-66,0 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 0 1,0 1 0,-1-1-1,1-3 1,0-2-29,-1-1-1,1 0 1,-1 1 0,0-1-1,-1 0 1,0 1 0,0-1 0,-1 1-1,0-1 1,0 1 0,-1 0-1,-6-13 1,7 16 47,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-6 1 0,14 17-267,0-14 232,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,1-1 0,8 2 0,77 0-519,-80-2 411,4 0-76,-1-1-1,0-1 0,0 0 0,0-1 1,0 0-1,0-1 0,0-1 1,-1 0-1,25-14 0,-32 15 127,0 1-1,0-2 1,0 1 0,-1-1 0,1 0-1,-1 0 1,-1 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,-1-1-1,1 1 1,-1-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,-1 0-1,0 0 1,1-13 0,-1 4 105,-1 9 39,1 1 0,0-1-1,-1 1 1,0-1 0,-1 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0 0,-2-1-1,-3-7 1,6 14-24,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,1 0 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 2-1,-16 29-155,15-27 262,-13 37-42,2 1-1,2 0 1,1 0 0,3 1-1,1 0 1,2 0 0,3 51 0,6-40-1197,-5-51 825,0 0 0,-1-1 1,1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,4 3 0,19 2-4537</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11895.23">1029 934 6019,'0'0'1987,"17"-6"-1282,54-17-102,-68 22-567,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1 0-1,-1 0 1,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0 3-1,2 6 208,-2 0-1,1 0 1,-2 0-1,1 0 0,-2 0 1,-2 19-1,0-17 85,-1-1 0,0 1-1,-2-1 1,1 0-1,-1 0 1,-1-1-1,0 0 1,-9 12 0,-7 11 944,23-34-1256,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,36-2-94,-33 2 151,23-3-74,0-2 0,0 0 1,0-2-1,32-13 1,49-24-3383,-101 39 2151</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12888.46">367 1879 2593,'0'0'7620,"1"-11"-6412,4-34 161,-4 34-315,-23 30-49,14-8-954,-1 0-1,1 0 1,1 1-1,0 0 0,1 1 1,0-1-1,1 1 0,1 0 1,0 0-1,0 1 1,1-1-1,1 1 0,0-1 1,1 1-1,1 0 0,2 27 1,-2-39-45,1 0 0,-1 1 0,1-1 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 1,4 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,1-1 0,-1 0-1,1 0 1,-1 0-1,12 0 1,-7-1-27,0 0 0,1-1 0,-1 0 0,0 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,1-1 0,8-5 0,-8 3 2,0-1 0,-1-1 1,0 1-1,-1-1 0,1-1 0,-2 0 1,1 0-1,-1 0 0,-1-1 1,1 0-1,-2-1 0,1 1 0,-2-1 1,1 0-1,-2 0 0,5-18 0,-17 79 211,5-38-149,2 1 1,0 0 0,0 0 0,1 17 0,1-27-49,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 0,1-1 0,-1 0 1,3-1-1,-2 2-2,1-1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,2-3 1,-3 2 4,0 1-1,0 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,0-1 0,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,-1 0-1,1 0 1,-1 1 0,0-1 0,-5-4-1,2 3 1,0-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1-1,1 0 1,-1 0 0,0 1 0,-13 1 0,20 0-5,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 1 1,1-1-1,-1 0 0,0 0 0,0 1 0,2 0 1,5 1-78,-1 0 0,1-1 0,-1 1-1,1-2 1,0 1 0,0-1 0,0-1 0,0 1 0,15-2 0,-5 0-271,0-1-1,-1-1 0,26-6 1,-33 6 234,0 0 0,0-1 0,-1 1 1,1-2-1,-1 0 0,0 0 0,0 0 0,-1-1 1,0 0-1,0-1 0,0 0 0,-1 0 1,0-1-1,0 0 0,-1 0 0,0-1 1,0 1-1,-1-1 0,0 0 0,-1-1 0,0 1 1,0-1-1,-1 0 0,0 0 0,-1 0 1,0 0-1,1-16 0,-3-105 1854,-3 126 601,-1 15-1908,-3 17-588,-11 87-348,-7 217-1,28-295-2587,13-13-1551</inkml:trace>
@@ -8641,7 +8991,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">91 297 320,'0'0'1569</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="917.05">114 29 1521,'0'0'5664,"0"-6"-4643,-2-17 156,-4 33 827,-8 52 675,9-41-3427,-12 78 872,-5 107-1,2-14-7,25-198-6328,3-13 3524,6-2-1325</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.67">7 745 1425,'0'0'6061,"-4"-12"-2310,4 10-3665,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1-3 1,4 1-99,0 1 1,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,0 0-1,1 1 1,0 0 0,0-1 0,0 2 0,-1-1 0,2 0-1,-1 1 1,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 0-1,10 2 1,-14-1 5,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 3 0,0 47-69,-1-39 86,-1-8-10,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,-1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,-9 6 0,-12 16 4,24-25-5,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,17 0-38,17-7 43,13-11 221,-32 11-362,0 2-1,0-1 1,26-4-1,-29 10-3386,-7 0-584</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.66">7 745 1425,'0'0'6061,"-4"-12"-2310,4 10-3665,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1-3 1,4 1-99,0 1 1,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,0 0-1,1 1 1,0 0 0,0-1 0,0 2 0,-1-1 0,2 0-1,-1 1 1,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 0-1,10 2 1,-14-1 5,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 3 0,0 47-69,-1-39 86,-1-8-10,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,-1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,-9 6 0,-12 16 4,24-25-5,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,17 0-38,17-7 43,13-11 221,-32 11-362,0 2-1,0-1 1,26-4-1,-29 10-3386,-7 0-584</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2515.91">102 1134 4082,'0'0'6640,"0"0"-6622,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,1 1 1,-1 0-1,3-3 4,0 0-1,0 1 0,1-1 1,-1 0-1,1 1 0,-1 0 1,1 0-1,0 0 0,0 1 1,0-1-1,0 1 0,5-1 1,-10 42 283,-2-32-261,1 0 0,-1 1 0,-1-1 1,1 0-1,-8 11 0,7-13-37,0 0 0,1 0-1,0 0 1,0 1 0,0 0 0,1-1 0,0 1 0,1 0-1,-2 14 1,3-21-14,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 0,0 1 1,0 0-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,1 0 1,32 6-186,-27-5 67,-1 0 78,31 5-167,-35-6 204,0 1-1,-1-1 1,1 0 0,-1 1 0,1-1-1,0 1 1,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,1 2 1,-2-1 55,1 0 0,-1 1 0,0-1 1,0 0-1,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,-3 2 0,-7 5 71,-1-1-1,-1 0 0,-14 5 1,11-9-721,11-3-6427</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3216.21">160 1668 496,'0'0'9127,"-3"-6"-7737,1-1-943,1 5-278,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,-3-2 1392,3 5-1525,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 30-145,1-30 166,0 7-23,0-6-45,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,1 0 0,0 0-1,-1 0 1,3 4 0,-3-6-3,1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,4 0-52,1 0 1,-1 0-1,0-1 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 0 1,-1 0-1,1 0 0,-1-1 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 0 1,-1-1-1,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,-1-1 0,0 1 1,3-12-1,0 5 314,-2 13-104,-3 26-66,-6 49-62,-6 18 116,2-18-464,0 78 0,10-162-6441,0-14 2721</inkml:trace>
 </inkml:ink>
@@ -8878,7 +9228,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6026.06">296 515 3153,'0'0'4456,"18"-2"-3592,74-5-4,0 5-1,0 3 0,107 16 0,295 65-459,-153-22-352,1832 311-2132,-46-10 1663,-1710-305 562,49 8 577,-346-45-1799,233 7 1,-355-27-1159,-9-8-2328</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7281.63">220 1152 4770,'0'0'56,"23"0"601,272 20 2202,898 122 615,-242-15-3212,-5 41 59,-495-85-266,535 106-417,-599-113 275,153 36-65,164 31 83,-694-142-9834,2-2 11893,-8 1-3022,13-3 258</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8660.25">273 1718 3954,'0'0'2470,"19"5"-1603,316 76 2236,727 64-825,-301-47-2080,-509-62-212,972 166-292,-720-106-272,548 134 465,-906-188 82,375 129 294,-359-97-138,-82-35 152,2-3-1,166 47 1,-247-83-490,-6 0-852,-24-3-1795,-19-12-2126</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10025.87">176 2445 4322,'0'0'574,"21"6"-252,279 63 1887,322-5-708,-123-16-907,-252-19-583,1702 238 194,-1483-176 74,173 27 215,-493-99-292,334 51 245,-360-46 449,228 77 1,-140-30 354,412 82 0,-566-146-1216,-53-7-177,-4-2-2277,-13-8-1578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10025.86">176 2445 4322,'0'0'574,"21"6"-252,279 63 1887,322-5-708,-123-16-907,-252-19-583,1702 238 194,-1483-176 74,173 27 215,-493-99-292,334 51 245,-360-46 449,228 77 1,-140-30 354,412 82 0,-566-146-1216,-53-7-177,-4-2-2277,-13-8-1578</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11025.24">8802 1352 7235,'0'0'2730,"-1"0"-2711,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,1 1 24,-1 0-1,1 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0 0-1,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,3-2 1,2-2 34,0 0 0,1 0 0,-2 0 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,4-9 0,10-33-78,-3 0 0,16-89 0,-30 163-401,1-1 0,2 1 0,12 46-1,-13-63-2315</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12354.81">8863 929 4674,'0'0'2849,"31"-4"-10356</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12990.15">9381 1212 6851,'0'0'5154,"3"-6"-4809,9-19-87,-8 19 484,-4 16-472,0 270 333,15-299-913,19-51 76,-29 57 225,0 0-1,1 1 1,0-1-1,1 1 1,0 0 0,1 1-1,0 0 1,1 0-1,17-15 1,-25 24 35,1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 1-1,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 1,1 2-1,3 3 42,-1 1 1,1 0 0,-1 1 0,-1-1-1,0 1 1,8 13 0,-11-15-349,1 0 1,0 0-1,1 0 0,0-1 1,-1 0-1,2 1 1,-1-2-1,1 1 0,-1 0 1,1-1-1,0 0 1,1 0-1,7 4 0,-5-6-380,0 0-1,0-1 0,0 0 1,0 0-1,0-1 0,0 0 1,0 0-1,0-1 0,0 0 1,0-1-1,0 0 0,0 0 0,13-6 1,9-12-765</inkml:trace>
@@ -8914,7 +9264,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">311 1 7331,'0'0'2572,"-20"7"-1926,3-1-512,7-4-90,1 1 0,0 1 0,0-1 0,0 1 1,0 1-1,1 0 0,-1 0 0,1 1 0,0-1 0,1 2 1,0-1-1,0 1 0,-9 11 0,-3 10 252,1 1 1,1 1-1,1 1 0,2 0 1,1 1-1,1 0 0,2 1 1,1 1-1,2-1 0,1 1 1,2 0-1,2 1 0,1 37 1,1-63-278,0 0 0,2-1 0,-1 1 0,1 0 1,0-1-1,0 0 0,1 1 0,0-1 0,1 0 0,0 0 1,0-1-1,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0-1 1,1 0-1,-1 0 0,1-1 0,0 0 0,1 0 0,8 4 1,-4-3-203,1 0 1,0-1 0,0 0-1,0-2 1,0 1 0,15 1-1,-11-3-733,1-1-1,0 0 0,0-2 1,24-2-1,15-10-3034</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="447.2">854 243 3986,'0'0'10354,"-7"12"-9871,-10 25-351,0 1 0,3 1-1,1 1 1,2 0 0,2 0 0,-7 68 0,16-184-479,4 0 0,2 1 0,22-102 1,-27 176 344,13-41 210,-14 41-192,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,0 0 0,13 23 297,-1 0 0,-1 1 0,-1 1 0,14 49 0,-12-35-125,4 11-246,-2 0 1,13 93-1,-21-35-3979,-8-94 990,-5-10-1117</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.02">699 525 8324,'0'0'7139,"86"-33"-7139,-33 25 0,3-3-304,-1 6-304,-9 2-689,-8-1-1632,-11 2-561,-12-4-1136</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176.85">980 377 7251,'0'0'3591,"21"9"-2929,68 34-78,-84-40-521,1 0 1,-1 1-1,1-1 0,-1 1 0,-1 1 1,1-1-1,0 1 0,-1 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,-1 0 0,0-1 1,3 12-1,-2-3 147,-2 0 1,0-1-1,0 1 1,-1 0-1,-1 16 1,0-21-21,-2-41 880,0-51-836,3 77-316,0-1 0,0 0 1,0 1-1,1-1 0,0 1 1,0-1-1,1 1 0,0 0 0,0 0 1,0 0-1,6-6 0,2-1-1113,0 1 0,2 1 1,14-12-1,-18 16-407,7-6-3644</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176.84">980 377 7251,'0'0'3591,"21"9"-2929,68 34-78,-84-40-521,1 0 1,-1 1-1,1-1 0,-1 1 0,-1 1 1,1-1-1,0 1 0,-1 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,-1 0 0,0-1 1,3 12-1,-2-3 147,-2 0 1,0-1-1,0 1 1,-1 0-1,-1 16 1,0-21-21,-2-41 880,0-51-836,3 77-316,0-1 0,0 0 1,0 1-1,1-1 0,0 1 1,0-1-1,1 1 0,0 0 0,0 0 1,0 0-1,6-6 0,2-1-1113,0 1 0,2 1 1,14-12-1,-18 16-407,7-6-3644</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1718.11">1287 320 6035,'0'0'4527,"8"18"-3540,1 1-742,1-1-104,-1 0 0,-1 1 0,0 0 0,-2 1 0,5 24 0,-10-39-71,2 50 495,-3-54-499,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1-1,0 0 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,-2 0 1,2 0-32,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,1-3-1,2-37-341,-2 38 239,1-1-1,0 0 1,0 1 0,0-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,2 1-1,-1-1 1,0 0 0,0 1 0,8-4-1,57-25-1174,-57 26 1003,82-25-1586,-62 21 539,-1-1 0,43-21 0,-72 31 1326,0 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,1-3 1,-19-2 2776,-33 8 500,47-2-3221,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 0 1,-1 0-1,-2 6 0,4-9-125,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,2 0 0,2 1-169,0 0 1,0 0 0,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1 0 1,1-1-1,6-4 1,-8 3 265,0 1-1,-1-1 1,0 1-1,1-1 1,-1 0 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,0 1-1,-1-1 1,1 0 0,-1 0-1,0 0 1,0 1-1,-1-1 1,1 0 0,-1-10-1,0 2 4113,0 19-2608,1 4-1732,0 0-1,0-1 1,1 1-1,0 0 1,5 12-1,-2-16-66,0 0 0,0 0 0,0 0 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 0 0,10 2 0,-8-3-5,0 1 1,1-1 0,-1-1 0,0 0-1,1 0 1,-1-1 0,1 0 0,-1-1-1,1 1 1,-1-2 0,16-4 0,-21 4 239,1 0 0,-1 0 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-9 0,1-4 996,-1 1-1,0-1 1,-1-28 0,-1 38-98,1 479-1858,-1-448 929,-2 0-1,0 0 0,-9 35 1,9-52 8,1 0 1,-1 0 0,-1 0 0,1-1-1,-1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,-1 0-1,1-1 1,-1 0 0,-1 0 0,1 0-1,-8 5 1,10-9-22,1 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,-3-2 1,2 0-339,-1-1 0,1 1 0,1-1 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,0-1 1,0 1-1,1 0 0,-1-9 0,1-31-4091</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2200.48">2303 382 13814,'0'0'6168,"6"-1"-5951,34-4-261,0 2 0,1 1 1,42 5-1,38-1-1327,-97-3-333,1-1 1,44-9-1,-68 10 1544,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,-3-6-4,-1 0 0,1 0 0,-2 0 0,-8-7 0,-61-43 5025,20 26 1824,58 32-6707,1 0 0,-1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 1 0,2 2 0,6 8-119,-3-5 102,24 25-469,42 58 0,-66-82 465,-1 1 1,0 0-1,0 0 1,-1 1-1,-1 0 0,1 0 1,-2 0-1,1 0 1,-2 1-1,0-1 1,2 18-1,-5-25 74,1-1 0,-1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-4 2-1,-11 5 127,0 0 0,-33 7 0,39-12-211,-58 12-1054,22-11-3990,17-4-2607</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2820.4">3472 20 2657,'0'0'11005,"-1"13"-10573,-6 351 3967,7-202-8866,0-80-2409,0-93-274</inkml:trace>
@@ -9007,8 +9357,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9029.67">4255 2063 3121,'0'0'10485,"-17"8"-9452,-49 27-517,1 3 0,2 2 0,1 4 0,-57 53 0,110-86-2640,24-10-8273,-4-6 10381,24-16-4090</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9030.67">4310 2086 3057,'0'0'10643,"-21"11"-9027,-6 4-1301,-157 88 2007,152-83-2072,0 1 0,2 2 0,-53 50 0,67-49-1671,16-24 1286,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 1,-1 0-1,25 0-5774,-3-6 4735,21-12-3967</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9413.42">4413 2166 3826,'0'0'10583,"-16"10"-8870,-51 30-670,-178 112 1297,241-148-2387,-37 29 209,39-32-298,0 1 0,0 0-1,0 0 1,1 1 0,-1-1 0,0 0-1,1 1 1,0-1 0,0 0 0,-1 1-1,1 0 1,1-1 0,-1 1 0,0 0-1,0 3 1,1-6 4,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,22-2-1727,-21 2 1576,36-12-2502,5-11-822</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9784.35">4471 2233 3474,'0'0'8854,"-17"9"-6695,-75 37-262,1 4 1,-150 113 0,234-158-2007,0 1-1,1-1 1,-1 1-1,1 1 1,1-1 0,-1 1-1,1 0 1,0 1-1,-5 10 1,10-18 2,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1-1-1,25-3-2654,15-13-889,4-10-952</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9785.35">4499 2251 592,'0'0'15623,"-101"84"-14982,71-58-161,1-1-320,-2 1-160,-1-2-192,-1 2-672,-1 0-593,7-6-1040,6-3-1249,12-10-2337</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9784.34">4471 2233 3474,'0'0'8854,"-17"9"-6695,-75 37-262,1 4 1,-150 113 0,234-158-2007,0 1-1,1-1 1,-1 1-1,1 1 1,1-1 0,-1 1-1,1 0 1,0 1-1,-5 10 1,10-18 2,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1-1-1,25-3-2654,15-13-889,4-10-952</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9785.34">4499 2251 592,'0'0'15623,"-101"84"-14982,71-58-161,1-1-320,-2 1-160,-1-2-192,-1 2-672,-1 0-593,7-6-1040,6-3-1249,12-10-2337</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10689.4">4465 2213 5282,'0'0'7022,"-18"5"-5584,-86 37 607,-122 67 0,58-19-2530,166-89-783,5-2-642,55-31-3712,24-34 1504,-39 30 2221,25-22 1505,-29 17 4610,-39 40-4091,1 1 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,-27 2 2957,26-2-3395,-38 10 654,1 1 1,0 2-1,-63 30 0,15-5-38,27-17-156,34-13-406,1 1 0,-44 23 0,107-47-5649,-1 1 4879,189-136-792,-196 128 2560,-30 22-653,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,-17 1 1420,-22 8-1025,-36 21 234,3 3-1,-97 60 1,168-92-784,6-3-80,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0-1 1,-1 0-1,1 0 1,-1 0-1,6-5 1,2-1-5,290-209-2273,-293 207 3212,-19 9 364,-21 9-381,-9 8-652,2 2 1,0 2-1,-36 23 0,-16 9 346,53-34-164,20-9 47,0 0 0,-26 18 1,62-29-1584,27-21 415,-1-1 0,-1-3 0,66-53 0,-104 76 770,4-2 34,-6 5 53,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,-1-1-1,4-4 1,-20 7 1055,-8 2-946,-1 0 1,1 2-1,0 1 0,0 1 1,1 0-1,-1 2 1,1 0-1,0 2 0,-38 21 1,57-28-226,17-5-337,0-1 1,0 0-1,0 0 1,-1-2-1,0 1 1,0-2-1,22-13 1,2 0-302,-17 10 448,-13 7 279,-1 0 1,0-1-1,-1 1 1,1-1-1,9-8 0,-50 28-5390,22-5 606</inkml:trace>
 </inkml:ink>
 </file>
@@ -9154,7 +9504,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">24 308 7668,'0'0'6386,"0"37"-5575,-12 200 618,1-24-729,11-230-664,6-220 62,-3 196-150,2 1 0,2-1 0,22-70 0,-28 109 38,14-29 74,-15 30-65,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1 1 1,13 19 22,-1 1 0,-1 0 0,-1 1 0,0 1 0,11 40 0,-13-34-23,1-2 0,2 0 0,28 49 0,-40-76-3,1 0 0,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,3 0 0,-2-1 10,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,20-58 221,-18 47-282,36-126-131,13-37-36,-52 176 232,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,6 18 76,0 32 110,-7-49-179,4 59 329,-2 1-1,-3 0 1,-2 0-1,-17 89 1,16-133-494,1-7-337,1 0 1,0 0-1,0 0 0,1 0 1,1 0-1,0 0 1,2 18-1,-2-26 267,1-1-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,2 0-1,50-6-3772,-3-13-154</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="511.05">736 474 2593,'0'0'11878,"-7"-16"-10827,2 6-909,1 0 0,-2 0 0,-11-17 0,16 27-136,1-1 0,-1 1 0,0-1-1,0 1 1,1 0 0,-1-1 0,0 1 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0-1,-1-1 1,0 2 0,-22 28 144,21-27-127,-3 5-42,0 1 1,0 0-1,1 1 0,0-1 0,1 1 1,0 0-1,1 0 0,0 0 1,0 0-1,1 0 0,1 0 1,0 12-1,0-21-9,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 0,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,1 1 0,-1-1 1,1 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 0,0 0 1,-1 0-1,1-1 1,-1 1-1,1 0 0,0-1 1,32-15-374,-14-3 265,-1-1 0,-1-1 0,-1-1-1,0 0 1,-2-1 0,-1-1 0,15-37 0,-20 124 2996,-7-57-2892,0 0 0,1 0 1,-1 0-1,1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,1-1 1,8 8-1,-9-9 6,1-1-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 0-1,0 1 1,0-1-1,0-1 1,0 1 0,0 0-1,0-1 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,1 0 1,5-3-1,-4 2-1,1-1-1,-1 0 1,0-1-1,0 1 1,-1-1 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0-1,6-9 1,0-5-26,0 0 0,-1-1-1,-1 0 1,-1-1 0,-1 0 0,-1 0 0,4-24 0,-3 9 1043,-2-1 0,1-51 0,-21 378-1171,3-193-2247,-4-2-3486,11-65 1262</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.13">948 463 7491,'0'0'6681,"-8"-18"-5417,2 4-1158,0 0-1,1-1 1,-3-16-1,8 30-105,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,2 0 0,38-9-128,-30 9 88,343-51-2048,-341 48 2189,-11 3 466,-15 2-133,0 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1 1 0,0 0 0,1 0 0,-22 14 0,25-14-383,1 0-1,-1 1 1,1 0-1,0 0 0,0 1 1,1 0-1,0 0 1,0 0-1,1 1 0,0 0 1,0 0-1,1 1 1,0-1-1,0 1 0,-4 15 1,7-22-78,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,3 1-1,2 0-72,1 0 0,0-1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 0 0,12-3 0,-6 0-85,0-1-1,-1 0 1,0-1 0,0 0 0,-1-1 0,1-1 0,-1 1 0,-1-2 0,0 0 0,13-13 0,3-5-251,-1-2 0,36-52-1,-44 55 341,-2 0 0,-1-1-1,-1-1 1,-1 0 0,11-39-1,-18 46 1517,-1 0 1,3-31-1,-12 73-1280,-1 0 0,-1-1 0,-15 38 0,-6 22 119,21-60-319,2 0-1,0 0 0,1 0 1,1 0-1,1 1 0,1-1 1,1 0-1,3 21 0,-4-39 32,1 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,4-1 1,2 1-63,0-1 1,0 0 0,0-1-1,0 0 1,0 0-1,-1-1 1,1 0 0,12-7-1,-1-4-187,0-1-1,-1 0 0,-1-2 1,24-30-1,-24 27 110,1 0-1,1 1 0,26-20 1,-44 39 211,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1 0,1 1-1,20 29 574,-13-18-225,-3-6-374,0 0-1,0 0 1,1-1-1,0 1 1,0-1-1,1-1 1,-1 1-1,1-1 1,1 0-1,-1-1 1,0 0-1,1 0 1,0-1-1,0 1 1,0-2-1,1 1 1,-1-1-1,1-1 1,-1 1-1,1-1 1,16-1-1,-10 1-242,-9-1-64,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,0-1 0,-1 1 0,8-4 0,-13 5-329,3-2 307,-10 1-5096,-28 1 309</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1163.12">948 463 7491,'0'0'6681,"-8"-18"-5417,2 4-1158,0 0-1,1-1 1,-3-16-1,8 30-105,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,2 0 0,38-9-128,-30 9 88,343-51-2048,-341 48 2189,-11 3 466,-15 2-133,0 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1 1 0,0 0 0,1 0 0,-22 14 0,25-14-383,1 0-1,-1 1 1,1 0-1,0 0 0,0 1 1,1 0-1,0 0 1,0 0-1,1 1 0,0 0 1,0 0-1,1 1 1,0-1-1,0 1 0,-4 15 1,7-22-78,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,3 1-1,2 0-72,1 0 0,0-1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 0 0,12-3 0,-6 0-85,0-1-1,-1 0 1,0-1 0,0 0 0,-1-1 0,1-1 0,-1 1 0,-1-2 0,0 0 0,13-13 0,3-5-251,-1-2 0,36-52-1,-44 55 341,-2 0 0,-1-1-1,-1-1 1,-1 0 0,11-39-1,-18 46 1517,-1 0 1,3-31-1,-12 73-1280,-1 0 0,-1-1 0,-15 38 0,-6 22 119,21-60-319,2 0-1,0 0 0,1 0 1,1 0-1,1 1 0,1-1 1,1 0-1,3 21 0,-4-39 32,1 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,4-1 1,2 1-63,0-1 1,0 0 0,0-1-1,0 0 1,0 0-1,-1-1 1,1 0 0,12-7-1,-1-4-187,0-1-1,-1 0 0,-1-2 1,24-30-1,-24 27 110,1 0-1,1 1 0,26-20 1,-44 39 211,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1 0,1 1-1,20 29 574,-13-18-225,-3-6-374,0 0-1,0 0 1,1-1-1,0 1 1,0-1-1,1-1 1,-1 1-1,1-1 1,1 0-1,-1-1 1,0 0-1,1 0 1,0-1-1,0 1 1,0-2-1,1 1 1,-1-1-1,1-1 1,-1 1-1,1-1 1,16-1-1,-10 1-242,-9-1-64,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,0-1 0,-1 1 0,8-4 0,-13 5-329,3-2 307,-10 1-5096,-28 1 309</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2078.86">10 1428 6563,'0'0'9850,"7"0"-9735,112 9-22,195-11 0,-313 1-120,12 1-677,0-1-1,-1-1 1,1-1 0,13-3-1,-24 5 339,0 0 0,1 1-1,-1-1 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,-1-1-1,1 1 1,-1 0 0,1-1-1,-1-2 1,0-2 264,-1 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,0 1-1,0 0 1,-1 0 0,-6-9 0,-1 2 1776,0 0-1,0 1 1,-1 1-1,-16-12 0,62 57 2900,72 94-4586,-105-127 25,7 9-27,-1 0 0,0 0 0,8 17 0,-14-25 63,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,-2 4-1,-4 1 153,-1-1-1,0 0 1,0 0-1,0-1 0,-1 0 1,0 0-1,-16 4 0,6-2-770,-1-1-1,1-1 1,-24 2-1,16-7-6153,18 0 938</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3378.54">1231 1328 4770,'0'0'7121,"0"-35"-3351,4 34-4939,22-10 3966,-22 6-228,-20 3-1903,10 2-696,-14 0-48,0 0 0,0 1 0,0 1 0,-23 6 1,36-6 51,1 0 1,0 0-1,-1 1 1,1 0 0,1 0-1,-1 0 1,0 1-1,1 0 1,0 0 0,-1 1-1,2-1 1,-1 1 0,0 0-1,1 0 1,0 1-1,-5 9 1,4-7-3,1 1-1,0 0 1,1 0-1,-1 1 1,2-1 0,0 1-1,0-1 1,0 1-1,1 0 1,1 0 0,0 0-1,0-1 1,2 12-1,-1-19 19,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 1,1 0-1,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,4-1 0,6 2-31,1-1 0,-1 0 0,21-4 0,-23 2 32,-1-1 0,0 0 0,0-1 0,-1 0 0,1-1 1,-1 0-1,0 0 0,0 0 0,0-1 0,-1-1 0,0 1 0,0-1 0,-1 0 0,9-13 0,-3 4-7,-1 0 0,-1-1 1,0-1-1,-1 0 0,-1 0 0,6-23 0,3-30-96,13-119 0,-10 53 11,-16 112 95,1 2 120,-2-1 1,1-25 0,-4 48-69,0 6-181,-8 250-259,1 66 561,7-317-172,0 1 1,0-1-1,0 0 1,1 1 0,0-1-1,0 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,5 5-1,-3-5 4,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0 0,0-1-1,-1 1 1,9-2-1,-3 0-250,-1 0 1,1 0-1,-1-1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1-1 1,0-1-1,-1 0 0,1 0 0,-1 0 0,14-15 0,-10-2-1718,-11 23 1796,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-20-5-5660</inkml:trace>
 </inkml:ink>
@@ -9381,7 +9731,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">26 27 5603,'0'0'6074,"-5"-5"-5721,-13-16 71,27 23 194,8 10-407,-3 5-86,-1 2-1,0 0 1,-2 0-1,0 1 0,-1 0 1,-1 1-1,-1 0 1,9 34-1,-9-20-65,-2 0 0,-1 0 0,-2 0 0,-1 63-1,-3-90-50,0 1-1,-1-1 0,0 1 0,0-1 0,-1 0 1,0 0-1,0 0 0,-1 0 0,0-1 0,0 1 0,-10 12 1,10-15 75,0-1 1,0 1-1,0-1 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 1,0-1-1,0 1 1,-1-1-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1-1 1,-10 0-1,16-1-44,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 1-1,0-2 1,0-29 229,0 22-116,1-3-173,0 0 0,0 0 0,1 0 0,1 0 0,0 0-1,0 0 1,1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,0 1-1,1 0 1,0 0 0,1 1 0,0 0 0,1 0 0,0 1 0,0 0-1,0 0 1,1 1 0,0 0 0,20-8 0,-7 2-595,2 2-1,-1 1 1,2 1 0,26-6 0,-14 7-1574,0 2 1,40-3 0,-14 6-1314,-7 1 387</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="774.92">689 222 2465,'0'0'10370,"-16"5"-9527,3-2-634,7-2-150,1 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,0 0 1,0 0-1,-4 6 0,1 0 62,1 1 0,0 0 1,1 0-1,0 0 0,1 0 1,0 1-1,0 0 0,2 0 1,-1 0-1,1 0 0,1 0 0,0 0 1,1 1-1,3 22 0,-2-33-120,-1 0-1,1 0 0,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,4-1 1,55 4-12,-52-4 10,1 0-4,0-1 0,0 0 0,1-1 0,-1 0 0,-1-1 0,1 0-1,0 0 1,-1-1 0,0-1 0,1 1 0,-2-1 0,16-12 0,-18 13 1,0-1 1,-1 0-1,0 0 0,0 0 1,0-1-1,-1 0 0,0 1 0,0-2 1,0 1-1,-1 0 0,1-1 1,-2 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,-1 0 1,1-14-1,-2 17 6,0 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,0 0 1,0 0-1,-1-1 1,1 2 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 1 1,-4-4 0,0 2 24,0 0-1,0 0 1,0 1 0,0-1 0,-1 1 0,1 1 0,-1-1 0,-9-1 0,-10-1-54,0 1 0,0 1 0,-42 1 0,84 16-2498,13-8 1884,-1-2 0,1-1 0,0-2 0,0 0 0,33-5 0,13 2 433,-72 2 283,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 1 0,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,2 2 1,-3-1 57,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 3-1,0 2-41,-2 25 649,0 30-133,2-58-591,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,1 0 0,-1-1 0,1 1 0,3 5-1,-3-8-13,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 0 0,3-1 1,5-2-15,-1 0-1,0-1 1,0 0 0,0 0 0,10-9 0,-5 3 85,-1-1 1,0 0-1,0 0 1,-1-2-1,-1 1 0,0-2 1,-1 1-1,10-20 1,-26 46 17,2 0 1,-1 0-1,2 0 1,0 0-1,0 0 1,1 1-1,0-1 1,1 23-1,2-33-117,-1-1 0,1 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0 0,1 0-1,-1 1 1,2-1 0,50 1-129,-39-1 145,-1-1 16,1-1 0,-1 0 0,0 0 0,0-2-1,0 1 1,0-2 0,0 0 0,-1 0 0,0-1-1,0 0 1,-1-1 0,1-1 0,18-17 0,-23 20 38,0-1 0,-1-1 1,1 1-1,-2-1 1,1 0-1,-1 0 1,0-1-1,0 1 1,-1-1-1,0 0 0,-1-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,-2 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,-2-17 0,1 24-21,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1-1,0-1 1,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1-1,-2 0 1,-2-1 4,1 1-1,-1 0 1,1 0 0,-1 0-1,0 1 1,-10-2-1,6 2-214,1 1-1,0 0 0,-1 0 0,1 0 0,-1 1 0,1 1 0,0 0 0,-16 5 1,-8 17-2569,6 7-1872</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1207.64">1521 421 304,'0'0'15781,"3"3"-15755,-1-1-26,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,4 1 1,56 2-3,-43-3-3,35 2-45,17 1-101,117-10 1,-185 7-217,22-6 1022,-25 5-876,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1207.63">1521 421 304,'0'0'15781,"3"3"-15755,-1-1-26,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,4 1 1,56 2-3,-43-3-3,35 2-45,17 1-101,117-10 1,-185 7-217,22-6 1022,-25 5-876,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1561.24">2047 265 6755,'0'0'8959,"1"6"-8762,1 21 160,0 1 1,-2-1-1,-1 1 0,-2-1 0,0 0 0,-8 30 0,8-44-122,5-19 423,10-28-302,3 12-597,1 1 0,1 0 1,0 1-1,1 2 0,2-1 0,-1 2 1,2 1-1,42-26 0,-59 40 226,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,7 1 0,-10 0 27,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 2 0,0-1-1,1 0 1,-1 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 0 0,1 4 0,0 16 204,0 0 0,-1-1 0,-1 1 0,-5 32 1,-2 39-4754,11-85 422,12-6-1547</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950.09">2637 342 5747,'0'0'10572,"-18"14"-9961,-54 43-491,70-55-120,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 4 0,1-5-6,1-1 1,0 0 0,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 0-1,2 0 1,2 2-38,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 0 0,0-1 0,5 1 1,-1 0 82,0-1 1,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1-1,1 0 1,-1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1-1,0 0 1,0-1 0,0 0 0,-1 1 0,4-10 0,-5 10 101,-1 1 0,0 0-1,-1-1 1,1 0 0,-1 1 0,0-1 0,-1 0-1,0 0 1,1 1 0,-2-11 0,0 14-140,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0 0,0-1-1,0 1 1,-2 0 0,2-1-185,0 1 0,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 3-1,-6 30-5570</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2307.11">3098 494 7587,'0'0'8004,"5"112"-6835,-5-67-609,-3-3-32,-20-5-144,-7-6-272,-4-2-112,-8-6-288,1-2-1168,-3-7-1314,-2-5-2160</inkml:trace>
@@ -9444,7 +9794,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 898 4834,'0'0'5021,"3"4"-4629,-1-1-304,-1 0-1,0 0 1,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0-1-1,0 1 1,1-1 0,-1 0-1,0 0 1,0-1-1,5 0 1,1-1-65,-1-1 1,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,-1-1 0,1 0 0,-1 0-1,-1-1 1,1 0 0,10-11 0,-2-2-32,0 0 1,0-1 0,14-28 0,-16 23 11,-1 0 1,-1 0 0,-1-1 0,-2 0-1,-1-1 1,-1 0 0,-1 0 0,1-35-1,-3 36 153,-2 21 188,-3 19-177,-5 47 153,-8 124 348,14-149-658,0-19 4,1 0-1,0 0 0,1 1 0,1-1 0,4 17 0,-4-30-13,-1 0-1,0 0 1,1 0-1,0 0 0,-1-1 1,2 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,6 0 1,4 1 17,0 0 1,0-2 0,0 0 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1-1,-1-1 1,1 0 0,-1 0 0,0-1 0,-1-1 0,1 0 0,-1-1-1,0 0 1,-1-1 0,16-12 0,-13 7-34,-1 0 0,-1-1 0,0 0 0,0-1-1,-2-1 1,0 1 0,-1-1 0,0-1 0,-2 0 0,0 0 0,-1 0 0,0-1-1,2-19 1,-4 7 155,-1 1-1,-2-33 1,-1 59-52,-3 0 547,-4 9-583,-5 12-168,1 11 169,0 1 0,3 0 1,0 1-1,-3 37 0,1 127 380,11-194-428,0-1-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,2-1 1,2 0 28,-1-1 0,1 0 0,0 1 0,0-2 0,-1 1 1,1 0-1,-1-1 0,0 0 0,0 0 0,7-7 0,40-44 77,-32 32-93,22-23 61,93-92 100,-133 137-127,-1 2 79,0 36-32,2-1 0,6 38 0,-7-67-94,1 1 1,0-1-1,0 1 1,0-1-1,1 0 1,1 0-1,-1 0 1,1 0-1,1-1 1,-1 1-1,1-1 1,1 0-1,-1 0 1,1-1-1,9 8 1,-9-10-30,1-1 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 1,0-1-1,0 0 1,1 1-1,-1-2 1,0 1-1,1-1 0,-1 0 1,0-1-1,1 0 1,8-2-1,0 0-356,0-1 0,0-1 0,0 0 0,-1-1 1,0-1-1,15-9 0,-12 6-455,0-2 0,-1 0 0,0-1 0,-1 0 0,0-1 0,-1-1 0,16-22 0,-24 28 763,0-1 1,-1 0-1,-1-1 0,0 0 1,7-20-1,-9 20 477,-1 1-1,0-1 0,-1 0 0,0 0 0,0 1 1,-1-1-1,-2-12 0,1 21-258,0 0-1,0 0 1,1 0 0,-2 0 0,1-1 0,0 1-1,0 1 1,-1-1 0,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1-1-1,0 1 1,-1-1 0,-3 1 0,1-1-1,0 0 1,-1 1 0,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1 0,0 1-1,-1 0 1,1 1 0,-9 3-1,8-1-111,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,0 2 0,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,0 0 0,-3 12 0,1 0-69,1 1-1,0-1 1,2 1-1,-1 33 1,3-51 9,0 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1-1 0,-1 0 1,0 0-1,3 0 1,1 1-11,1-1 0,-1 0 0,0 0 0,0 0-1,1-1 1,-1 0 0,0 0 0,0-1 0,0 1 0,10-6 0,-7 1 57,0 0 1,0-1-1,0 0 1,-1 0-1,-1-1 1,1 0-1,-1 0 0,0-1 1,-1 0-1,0 0 1,-1-1-1,0 0 1,5-12-1,3-13 26,-2 0 0,12-58 0,-10 32-62,36-246 14,-62 358 1031,-18 71-1034,22-39 166,5 106 0,4-161-163,0-22-6,0 0 0,1 0-1,0 0 1,0 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1-1-1,0 0 1,0 0 0,1 0-1,0 0 1,-1 0 0,2 0 0,-1-1-1,0 0 1,1 0 0,0 0 0,0 0-1,0-1 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 0 0,8 2-1,-6-1-11,1-1 0,-1 0-1,1-1 1,0 0-1,0 0 1,-1-1-1,1 0 1,0-1 0,0 1-1,0-2 1,-1 1-1,1-1 1,-1 0-1,1-1 1,-1 0 0,0-1-1,0 1 1,0-1-1,12-9 1,-11 7 12,-1-1 0,0-1 1,0 0-1,-1 0 0,0 0 0,0-1 1,-1 0-1,0 0 0,0 0 1,-1-1-1,4-10 0,-5 5 37,0-1 0,0 1 0,-1-1 0,-1 1 0,-1-1-1,-1-29 1,0 42-11,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 1-1,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 0,-5-1 1,3 1 23,-1 0 0,1 1 0,0-1-1,0 1 1,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 1 0,-5 3 0,0 3 17,0-1 1,1 1-1,0 1 0,1 0 1,0 0-1,0 0 1,2 1-1,-1 0 0,1 1 1,1-1-1,0 1 1,-4 16-1,4-11-61,0 0 0,2 0 0,0 1 0,1 0-1,1-1 1,1 1 0,1 0 0,3 25 0,-3-39-51,0 0 1,0 0-1,1 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,1-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,5 2 1,-1 0-182,0-1 1,1 0-1,0 0 1,-1-1-1,1 0 1,0-1 0,1 0-1,9 2 1,0-2-864,0 0 1,0-1-1,-1-1 0,1 0 1,0-2-1,0 0 1,31-8-1,14-14-3539</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.81">2547 389 3954,'0'0'12848,"-5"7"-12106,-19 24-199,-1-1 1,-2-1-1,-44 37 1,48-47-1019,-1-1 0,-51 29 1,72-77-433,3 22 840,0-1 0,1 1 1,0 0-1,1-1 1,0 1-1,0 0 0,1 0 1,0 0-1,0 1 0,1-1 1,0 1-1,8-12 1,-9 16 73,0-1 1,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1-1,0 1 1,-1 0 0,2 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0-1,-1 1 1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0-1,1 1 1,-1 0 0,0 0 0,6 1 0,-1 2 33,0-1-1,-1 1 1,0 0 0,1 1-1,-1 0 1,-1 0 0,15 13 0,49 53 218,-43-41-172,39 37-4,42 44-993,-108-110 707,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 2 1,-2-2-144,1 1 0,-1-1 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-2 0 0,-49 0-4125</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="729.1">605 178 5699,'0'0'9460,"-14"-28"-9460</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1347.67">3838 96 8148,'0'0'5309,"-21"-17"-4733,-68-49-264,88 65-305,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,-2 2 1,-10 6 29,1 1 0,1 0 0,0 1 0,0 1 0,-19 22 0,-47 68 215,42-50-157,3 2 0,3 1 0,2 1 0,-40 114 0,53-120-76,2 0 1,3 0-1,2 1 1,2 0 0,2 1-1,5 75 1,1-111-25,0 1 1,0-1 0,2 0-1,0 0 1,1 0 0,0 0-1,1-1 1,1 0 0,0 0-1,1 0 1,1-1-1,0 0 1,15 16 0,-14-19-13,0-1 0,0 0 0,1-1 0,0 0 0,1 0 0,0-1 0,0-1 0,0 0 0,1 0 0,0-2 0,0 1 0,0-1 0,0-1 0,1-1 0,25 3 0,-26-4-265,0-1 0,0 0 1,0 0-1,0-1 0,0-1 0,0 0 0,0-1 1,-1 0-1,1-1 0,-1 0 0,0-1 0,0 0 1,0-1-1,-1-1 0,14-9 0,27-25-3788</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1347.66">3838 96 8148,'0'0'5309,"-21"-17"-4733,-68-49-264,88 65-305,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,-2 2 1,-10 6 29,1 1 0,1 0 0,0 1 0,0 1 0,-19 22 0,-47 68 215,42-50-157,3 2 0,3 1 0,2 1 0,-40 114 0,53-120-76,2 0 1,3 0-1,2 1 1,2 0 0,2 1-1,5 75 1,1-111-25,0 1 1,0-1 0,2 0-1,0 0 1,1 0 0,0 0-1,1-1 1,1 0 0,0 0-1,1 0 1,1-1-1,0 0 1,15 16 0,-14-19-13,0-1 0,0 0 0,1-1 0,0 0 0,1 0 0,0-1 0,0-1 0,0 0 0,1 0 0,0-2 0,0 1 0,0-1 0,0-1 0,1-1 0,25 3 0,-26-4-265,0-1 0,0 0 1,0 0-1,0-1 0,0-1 0,0 0 0,0-1 1,-1 0-1,1-1 0,-1 0 0,0-1 0,0 0 1,0-1-1,-1-1 0,14-9 0,27-25-3788</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2124.67">4662 339 7171,'0'0'4931,"-4"12"-4750,-132 369 1919,74-218-1948,112-316-408,6 2-1,92-172 1,-144 317 325,14-26 299,-17 31-331,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,1 1 0,1-1-1,-1 2-28,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 1 0,0 3 0,1 3 16,13 77 426,-5 0 0,-3 1 0,-11 156 0,1-163-491,-5 125-2303,18-212-5016,3-15 3400</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2526.17">4524 685 2001,'0'0'11477,"101"-6"-11333,-29-2 16,11 0-160,-3 2-80,-6-2-752,-14 4-1057,-18 0-1232,-17 0-545</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2898.54">4959 572 5202,'0'0'6929,"21"-3"-6580,69-10-12,-85 13-309,0 0 1,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,6 7 0,-4-5 38,0 2 0,-1-1 1,0 0-1,-1 1 1,1 0-1,-1 0 0,-1 0 1,0 0-1,0 0 0,1 11 1,-2-7-32,-1 0 1,0 0 0,-1 0-1,0 0 1,-1 0 0,0 0-1,-7 18 1,7-24-4,0 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0-1,-1 0 1,1-1 0,-1 0 0,1 0 0,-1 0-1,-1 0 1,1-1 0,-11 5 0,16-7 263,0-5 214,1-8-425,0 1 0,1-1 0,1 0 0,0 0 0,0 1 1,1-1-1,1 1 0,0 0 0,1 1 0,0-1 0,0 1 0,1 0 1,15-16-1,-12 14-250,1 1 1,0 1 0,1 0-1,0 1 1,0 0-1,1 0 1,0 1 0,0 1-1,1 0 1,27-9-1,3 9-2548,-1 5-3981,-30 2 1657</inkml:trace>
@@ -9477,15 +9827,15 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">435 217 4866,'0'0'942,"6"-19"853,6-18-853,26-77 4949,-38 114-5882,2-6 646,0 0 0,0 1 0,1 0 0,0-1 0,0 1 0,7-9 0,-10 14-643,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,0 2 12,-3 39-88,-3 1 0,-1-1 0,-25 79 0,4-12 200,-71 390-763,99-498 616,0 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1-1 17,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1-1 0,-1 0 0,-3-4 28,-1-1-1,1 1 0,0-1 0,0 0 1,-4-8-1,-15-30-13,2 0 1,2-2-1,-25-90 1,16 46 150,26 85-570,5 21 118,8 30-7,1-15 148,2-1 1,1 0-1,1-1 0,2-1 1,23 31-1,-33-50 70,-1 0-1,2-1 1,-1 0-1,1-1 1,0 1-1,1-1 1,0-1-1,0 0 1,0 0-1,1 0 1,0-1-1,0-1 1,1 0-1,-1 0 1,1-1-1,0 0 1,0-1-1,0 0 1,17 1-1,-22-3 69,1 0-1,0-1 0,0 1 1,-1-1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 1,0-1-1,0 0 0,0 0 1,7-5-1,-3 0 33,-1 0 0,0-1 0,-1 0 0,1 0 0,-2-1 0,8-11 0,-9 11-341,26-40 816,-23 16-5375,-18 33-5664</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="702.72">176 1262 4930,'0'0'9250,"1"-4"-8602,3-10-455,-3 22-87,-10 35 142,-68 177 573,14-46-748,51-131-73,-3 1-957,11-51 586,2-32 402,3-3 1,2-1-1,1 1 0,3 0 1,22-76-1,-22 96 0,1 0 0,1 1 0,1 0 0,1 0 0,1 1 1,1 0-1,1 1 0,0 1 0,2 0 0,27-25 0,-37 39-41,0-1 0,0 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0 0 0,1 1 0,10 0 0,-14 0 3,0 0-1,-1 1 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 1,-1 1-1,0-1 0,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,0 1 0,0-1 1,1 7-1,-1-3 20,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 0 0,0 0 0,-9 9 0,-3-1 15,0-1 0,-1 0-1,0-2 1,-1 0 0,-28 12 0,-29 12-3247,82-35-3815,21-9 1803</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1071.48">517 1271 2817,'0'0'9279,"-19"13"-8329,-58 44-483,73-53-447,1-1 0,0 1 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 1,-1 0-1,3 9 0,-2-6-16,-1-6-3,1 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,1 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,2 0 1,62 4 25,-56-4-25,2 0 7,1-1-1,-1 0 1,0-1-1,0 0 0,0-1 1,0 0-1,0-1 0,-1 0 1,1-1-1,-1 0 1,-1-1-1,20-13 0,-23 14 38,-1 0 0,1-1-1,-1 0 1,0 0 0,-1 0 0,0 0-1,0-1 1,0 0 0,-1 0-1,0-1 1,0 1 0,-1-1-1,0 1 1,-1-1 0,1 0-1,-2 0 1,1 0 0,-1-1 0,0-9-1,-1 13 11,1 0 0,-1 0 0,-1 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 0,-1 1 0,-3-8 0,3 10-70,0 0-1,1 0 1,-1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,-4 0 1,5 1-191,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 1,1 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1 4 0,-2 23-3944</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.84">1030 1285 1072,'0'0'13006,"-8"-12"-12133,-30-35-598,38 46-278,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 1 0,-16 44-228,15-35 131,0-1 0,1 1-1,1 0 1,0-1 0,0 1-1,1 0 1,0-1 0,1 1-1,1 0 1,-1-1 0,2 0-1,-1 0 1,2 0 0,-1 0-1,1-1 1,1 1 0,0-1 0,0 0-1,15 15 1,0-3-102,-15-17 242,-1 2 0,1-1 0,-1 1 0,0-1 0,0 1-1,-1 1 1,7 11 0,-11-17 62,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,-1 0 0,-25 8-186,20-6 279,-58 20-392,24-8-1469,2-3-4360</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1801.85">1201 1409 4562,'0'0'8564,"-17"102"-7411,-1-67-913,-3-1-176,-3-6-64,6-4-865,-1-8-1184,7-10-1856</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.85">1346 1214 8884,'0'0'624</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159.05">1724 1160 9861,'0'0'2822,"-5"20"-2278,3-14-556,-35 123 587,30-110-947,0-1 0,-1 0 0,-1 0 0,-1-1-1,-21 29 1,28-43 281,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,-7 0 0,11-1 223,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1-2 0,1 2-150,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,1 1 0,33-9-667,-29 7 495,39-9-168,0 1 1,1 3-1,67-3 1,-113 11 421,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1-1,-1 0 1,1 1 0,-3 30 413,0-19-350,0-1 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,-1 0 0,-9 11 0,-14 25-848,24-26-4076</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2579.71">2095 1170 7059,'0'0'2497,"-72"105"-4674,72-67-2081</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2917.71">2100 1433 3778,'0'0'10778,"-5"17"-10391,-13 50-270,17-65-114,1-1-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,1 0 1,-1-1-1,1 2 0,2-1 2,-1 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,4 0-1,-1 0-9,3 1-3,0-1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0-1 0,11-3 0,-18 4 8,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-3 1,0 3 44,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 0,-2-4 1,2 6-36,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 1 0,0-1-38,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 2 0,1-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1 3 0,-1-4-1,1 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,1 2-1,1-2-8,-1 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0 0 0,-2 5 0,2-7-300,0 0-1,0-1 0,0 1 1,0 0-1,-1-1 1,1 1-1,0-1 0,-1 0 1,1 1-1,-1-1 0,0 0 1,-3 2-1,-39 17-7215</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">432 221 4866,'0'0'942,"6"-19"853,5-19-853,27-78 4949,-38 116-5882,2-6 646,0 0 0,0 1 0,1 0 0,0-2 0,0 2 0,7-9 0,-10 14-643,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,0 2 12,-3 40-88,-3 1 0,-1-1 0,-25 80 0,5-12 200,-72 399-763,99-509 616,0 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1-1 17,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 1,-1 1-1,0 0 0,0-1 0,1 1 0,-1-1 0,-1 0 0,-3-4 28,-1-1-1,1 1 0,0-2 0,0 1 1,-4-8-1,-15-31-13,2 0 1,2-2-1,-24-91 1,15 46 150,26 87-570,5 21 118,8 31-7,1-15 148,2-2 1,1 1-1,0-2 0,3 0 1,23 31-1,-33-51 70,-1 0-1,2 0 1,-1-1-1,1-1 1,0 1-1,1-1 1,0-1-1,-1 1 1,1-1-1,1 0 1,0-1-1,0-1 1,1 0-1,-1 0 1,1-1-1,0 0 1,0-1-1,0 0 1,16 1-1,-21-3 69,1 0-1,0-1 0,0 1 1,-1-1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 1,0-1-1,0 0 0,0 0 1,7-5-1,-3 0 33,-2-1 0,1 0 0,-1 0 0,1 0 0,-2-1 0,8-12 0,-9 12-341,26-41 816,-23 16-5375,-18 34-5664</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="702.72">175 1288 4930,'0'0'9250,"1"-5"-8602,3-9-455,-3 22-87,-10 36 142,-68 181 573,15-48-748,50-133-73,-3 1-957,11-52 586,2-33 402,3-3 1,2-1-1,1 1 0,3 1 1,22-79-1,-22 99 0,1-1 0,0 2 0,2-1 0,1 1 0,1 1 1,1-1-1,1 2 0,0 1 0,2-1 0,26-25 0,-36 40-41,0-1 0,0 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 2 0,9 0 0,-13 0 3,0 0-1,-1 2 1,1-2-1,0 1 0,-1 0 1,1 0-1,0 0 1,-1 1-1,0-1 0,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 2 1,-1-2-1,0 1 0,0-1 1,1 7-1,-1-3 20,0-1 0,-1 0 0,0 1 0,0 0 0,0-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 0 0,0 0 0,-9 10 0,-3-2 15,0-1 0,0 0-1,-1-1 1,-1-1 0,-28 12 0,-28 13-3247,81-36-3815,21-9 1803</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1071.48">513 1297 2817,'0'0'9279,"-19"13"-8329,-57 45-483,72-54-447,1-1 0,0 1 0,-1 0 0,1 2 0,1-2 0,-1 0 0,0 1 0,1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,1 0 1,-1 0-1,3 9 0,-2-5-16,-1-7-3,1 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,1 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,2 0 1,61 4 25,-55-4-25,2 0 7,1-1-1,-1 0 1,0-1-1,0 0 0,-1-1 1,1 0-1,0-1 0,-1 0 1,1-1-1,-1 0 1,-1-1-1,20-14 0,-23 15 38,-1 0 0,1-1-1,-2 0 1,1 0 0,-1 0 0,0-1-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 1 0,-1-1-1,0 0 1,-1 0 0,1 0-1,-2 0 1,1 0 0,-1-1 0,0-10-1,-1 14 11,1 0 0,-1 0 0,-1 0 0,1 1 0,-1-1 1,0-1-1,0 2 0,0-1 0,-1 1 0,-3-8 0,3 10-70,0 0-1,1 0 1,-1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0 0 0,1 0 0,0 0-1,-5 0 1,5 1-191,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 1,1 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 1-1,1 0 0,-1 0 0,1 4 0,-2 23-3944</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.84">1022 1311 1072,'0'0'13006,"-8"-12"-12133,-30-36-598,38 47-278,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 1 1,1-1-1,0 1 0,-1-1 1,0 1-1,0-1 1,0 1-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 1 0,-16 45-228,15-36 131,0-1 0,1 2-1,1-1 1,0-1 0,0 1-1,1 0 1,0 0 0,1 0-1,1 0 1,-1-1 0,2 0-1,-1 1 1,2-1 0,-1 0-1,1-1 1,0 1 0,1 0 0,0-1-1,15 15 1,0-2-102,-15-18 242,-1 2 0,1-1 0,-1 1 0,0-1 0,0 1-1,-1 2 1,7 10 0,-11-17 62,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,-1 0 0,-25 8-186,20-6 279,-57 21-392,23-9-1469,2-3-4360</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1801.85">1192 1438 4562,'0'0'8564,"-17"104"-7411,-1-69-913,-3 0-176,-3-6-64,6-5-865,-1-8-1184,8-9-1856</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.85">1335 1239 8884,'0'0'624</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159.05">1710 1184 9861,'0'0'2822,"-5"20"-2278,3-14-556,-34 126 587,29-113-947,0-1 0,-1 1 0,-1-1 0,-1-1-1,-21 30 1,28-44 281,-1 1 0,1-1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,-7 0 0,11-1 223,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,0-2 0,-1 2 0,1-2 0,1 2-150,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,1 1 0,33-9-667,-29 7 495,38-9-168,1 0 1,1 4-1,66-3 1,-112 11 421,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 2 0,0-2-1,-1 0 1,1 1 0,-3 30 413,0-18-350,0-2 0,-1 0 0,-1 0 0,0 0 0,-1 1 0,0-2 0,-1 0 0,-9 12 0,-14 25-848,24-27-4076</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2579.71">2078 1194 7059,'0'0'2497,"-71"107"-4674,71-68-2081</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2917.71">2083 1462 3778,'0'0'10778,"-5"17"-10391,-12 52-270,16-67-114,1-1-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,1 0 1,-1-1-1,1 3 0,2-2 2,-2 0-1,2 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,4 0-1,-1 0-9,3 1-3,0-1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0-1 0,10-4 0,-17 5 8,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 1,0 0-1,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-3 1,0 3 44,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 0,-2-5 1,2 7-36,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 1 0,0-1-38,0 1 0,0-1 0,0 1 0,0 1 0,1-1 0,0-1 0,-1 2 0,1-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1 3 0,-1-4-1,1 0-1,0-1 1,0 1-1,0 0 1,0 1 0,0-1-1,0-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,1 0 1,1 2-1,1-2-8,-1 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 2 0,0-2 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 2 0,1-2 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0 0 0,-2 5 0,2-7-300,0 0-1,0-1 0,0 2 1,0-1-1,-1-1 1,1 1-1,0-1 0,-1 0 1,1 1-1,-1-1 0,0 0 1,-3 2-1,-38 17-7215</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9513,17 +9863,17 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 31 4178,'0'0'4066,"-3"-5"-3186,-10-15 54,10 15 3327,71 9-3980,-1 2 1,0 3-1,65 18 1,47 7-152,420 42-93,-419-55 70,-81-9 43,1-4 1,190-9-1,-279 1-129,-5-1-13,0 1 0,-1 0 1,1-1-1,0 0 1,0-1-1,-1 1 0,1-1 1,5-3-1,-25 3-2991,-80 2-2870,24 2 536</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="696.24">960 81 5587,'0'0'6965,"1"-3"-6228,-1 3-730,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,2 13 88,-1 20 7,-4 21 230,-3 0 1,-23 90-1,7-43-243,5-1-27,7-31 8,-29 95 1,38-161-68,0 0 1,0 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,-4 3 0,4-4 11,0 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,-2-2 1,-2 0 3,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 1,1-1-1,-1 0 0,0-1 0,1 1 0,0-1 0,0 0 0,-4-7 1,-6-15 69,1 0 1,2 0-1,0-1 1,2-1-1,2 1 1,-7-46-1,15 77 67,5 28 10,13 40 1,-8-41-176,33 71-89,-39-93 88,-1 0-1,1 0 0,0-1 1,1 1-1,0-1 0,0 0 0,1-1 1,0 0-1,12 10 0,-15-14 24,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1 0,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,-1-1 1,6-3 0,8-7 39,0-1 1,-1 0-1,28-32 1,-42 44-56,139-173-1264,-134 165-679,-20 16-6874,4 0 8981,-22 19-3173</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3298.81">212 1319 5715,'0'0'7107,"0"-6"-6173,-1-12-298,-1 33-209,-7 41-341,-83 240 364,52-177-438,33-97-10,4-9-31,-1 0 0,-1 0-1,0 0 1,-1-1 0,-11 17 0,17-29 34,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,-6-20 133,2-23-156,2 19-49,1 0 0,2 1 0,0-1 0,2 0 0,0 1 0,2 0 0,0-1 0,2 2 0,1-1 0,14-28 0,-6 21-18,2 0 0,1 1 0,2 1 0,1 1 0,43-43 0,-56 61 17,2 0 0,-1 1 0,1 0 0,0 1 1,0 0-1,1 1 0,0 0 0,1 0 0,-1 2 0,1-1 1,0 1-1,0 1 0,0 0 0,1 1 0,-1 1 0,1 0 1,-1 0-1,15 2 0,-26-1 61,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 3 1,0 0 39,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1 0 0,-5 8 0,-3-1 75,0 0 0,0-1-1,-1 0 1,-1-1-1,0 0 1,-17 9 0,-93 46 243,-1 0-2117,113-56 241</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3670.25">578 1405 4322,'0'0'7041,"-6"18"-6172,-1 7-668,0 0 0,2 0-1,1 0 1,-2 46-1,7-67-204,-1-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,1-1 1,-1 0-1,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,7 1 0,7 1 0,-1-1 0,1 0 0,-1-1 0,1-1 0,34-4 0,-40 2 25,-1 0 1,0-1-1,1-1 1,-1 1-1,-1-2 1,1 0-1,-1 0 1,0-1-1,0 0 1,0 0-1,-1-1 1,0 0-1,-1-1 1,10-10-1,-12 12 69,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,-1-1 1,0 1-1,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,-1 1 0,0-1 0,-2-13 0,2 19-34,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-4-2-1,0 2-2,0-1 1,0 0-1,0 1 1,0 0-1,0 1 1,-1-1-1,-8 0 1,8 1-146,1 0-1,-1 1 1,0 0 0,0 0 0,1 0-1,-1 1 1,0 0 0,1 0 0,-1 1 0,0-1-1,1 1 1,0 1 0,0-1 0,-1 1-1,-4 4 1,8-4-296,0 0 0,0 1-1,0-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,1 0 1,-1 1 0,1-1-1,1 7 1,16 15-4687</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4041.76">1172 1391 4498,'0'0'4901,"-22"-15"-2775,-72-45-210,88 57-1753,0 0 0,0 0 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 1,0 0-1,-12 1 0,-6 0 253,23-1-424,0 1-1,1-1 1,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,0 2 0,0 2-88,0 0 0,0-1 1,1 1-1,-1 0 0,1-1 1,1 1-1,-1-1 1,1 0-1,0 0 0,0 0 1,6 6-1,4 1-190,1-1 0,0 0 0,0-1 0,1 0 0,25 12 0,88 30-835,-84-35 876,59 29 0,-103-46 283,0 0 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,-30 11 1105,26-10-1048,-36 13 385,12-6-491,0 1 0,1 2 0,0 1 0,-46 27-1,60-24-1913,20-8-1880,28-5 0,18-13 1191,9-15-385</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4400.89">1359 1594 1105,'0'0'14534,"9"0"-14486,-28 36 112,-2 5 240,-2 3-400,2 0-224,2-4-672,5-3-1537,8-15-1825,3-14-2001</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4401.89">1590 1152 2961,'0'0'12470,"-19"161"-12294,-2-75-176,-2 7-512,-3-1-881,10-13-2529,11-21-3649</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4830.34">1881 830 8580,'0'0'5058,"-9"16"-8499,9 26 1040,-7 6-625</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5340.48">2037 1011 4338,'0'0'8649,"-10"28"-7920,-74 202 1216,56-129-2765,-22 161 1,50-260 716,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 1,1 0-1,-1-1 0,0 1 1,-1 0-1,0-1 79,1 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,-31-50 539,25 35 53,0-1 0,2 1 0,-5-24 0,9 37-476,0 0 0,0 0 0,0 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0-1,0 1 1,1-1 0,-1 1 0,5-5 0,3 1-144,1 0-1,0 1 1,1 0 0,-1 1 0,1 1 0,19-6-1,81-14-667,-72 16 411,24-2-212,-42 8 454,-1-1-1,0-1 0,0-1 0,25-9 0,-45 13 613,-12 42 863,-19 21-309,18-41-990,1 0 1,1 1 0,1 1 0,1 0 0,0 0-1,3 1 1,0-1 0,-3 39 0,8-55 222,4 23-3884,-3-30 3366,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 0 0,23-14-3130</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.77">2417 1073 2369,'0'0'11285,"-47"59"-12389,33-11-993,10 0-1473,4-8-1952</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6077">2415 1355 3890,'0'0'10495,"-8"20"-9284,-23 63-658,29-79-546,1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,1 0 0,1 6-1,-1-8-14,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,3 2 0,4-1-104,0 0-1,1 0 1,-1 0-1,0-1 1,1-1-1,-1 0 0,19-1 1,-21 0-5,-2 1 61,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 0-1,-1 1 1,0-1-1,3-7 1,0-2 126,-1 0 1,-1 0-1,0-1 0,-1 1 1,0-1-1,-1 0 0,-1-14 1,0 28-57,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,-9 6-46,-7 11-435,45-61-2542,-23 36 3224,0 0-1,-1-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1-12 0,-5 21-121,-1 0-1,1 0 0,0-1 1,0 2-1,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 1,-2 2-1,0 3-419,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,-1 0 0,1 0 0,-1 0 0,2 1 0,-1-1 0,-1 12 0,-2 4-3398,0 0-2181</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 32 4178,'0'0'4066,"-3"-6"-3186,-10-14 54,10 15 3327,71 9-3980,-2 2 1,1 3-1,64 19 1,47 7-152,416 42-93,-415-56 70,-80-8 43,0-5 1,189-9-1,-277 1-129,-5-1-13,0 1 0,-1 0 1,1-1-1,0 0 1,0-1-1,-1 1 0,0-1 1,6-4-1,-24 4-2991,-81 2-2870,25 2 536</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="696.24">953 83 5587,'0'0'6965,"1"-4"-6228,-1 4-730,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,2 14 88,-1 19 7,-4 22 230,-3 0 1,-22 92-1,6-44-243,5-1-27,7-32 8,-29 97 1,38-164-68,0 0 1,0 1 0,0-2 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,-4 3 0,5-4 11,-1 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,-2-2 1,-2 0 3,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 1,1-1-1,-1 0 0,0-1 0,1 0 0,0 0 0,0 0 0,-4-7 1,-6-15 69,1-1 1,3 0-1,-1 0 1,2-2-1,2 2 1,-7-48-1,15 80 67,5 27 10,13 41 1,-8-41-176,32 72-89,-38-95 88,-1 0-1,1 0 0,0 0 1,1 0-1,0-1 0,0 0 0,1-1 1,0 0-1,12 10 0,-15-13 24,0-1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 0-1,-1 0 1,1-1-1,-2 1 1,2-1-1,0 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1 0,1 1-1,-1-1 1,0 0-1,0-1 1,0 1-1,-1-1 1,6-3 0,8-7 39,0-1 1,-1 0-1,27-33 1,-41 45-56,138-177-1264,-133 169-679,-20 16-6874,4 0 8981,-21 20-3173</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3298.81">211 1344 5715,'0'0'7107,"0"-6"-6173,-1-12-298,-1 33-209,-7 42-341,-83 244 364,53-179-438,32-100-10,4-9-31,-1 1 0,-1-1-1,0 0 1,-1-1 0,-11 18 0,17-30 34,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,-6-20 133,2-24-156,2 19-49,1 1 0,2 0 0,0 0 0,2-1 0,0 2 0,2 0 0,0-2 0,2 3 0,1-2 0,14-28 0,-6 22-18,1-1 0,2 2 0,2 0 0,1 2 0,43-45 0,-57 63 17,3 0 0,-1 1 0,1 0 0,0 0 1,0 1-1,1 1 0,0 0 0,1 0 0,-1 2 0,1-1 1,0 1-1,0 1 0,-1 0 0,2 1 0,-1 1 0,1 0 1,-1 0-1,15 2 0,-26-1 61,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 4 1,0-1 39,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,-1 0 0,-5 8 0,-3-1 75,0 0 0,0 0-1,-1-1 1,-1-1-1,0 0 1,-17 10 0,-92 46 243,-1 0-2117,112-57 241</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3670.25">574 1432 4322,'0'0'7041,"-6"18"-6172,-1 7-668,0 1 0,2-1-1,1 1 1,-2 46-1,7-68-204,-1-1 1,1 1-1,0 0 0,0 1 0,1-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,1-1 1,-1 0-1,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,7 1 0,7 1 0,-2-1 0,2 0 0,-1-1 0,1-1 0,34-4 0,-40 2 25,-1 0 1,0-1-1,0-1 1,0 1-1,-1-2 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 0-1,-1-1 1,0 0-1,-1-1 1,10-11-1,-12 13 69,0-1 0,-1 0 0,0 0 0,-1-1 0,1-1 0,-1 2 0,0-1 0,-1-1 1,0 1-1,0 0 0,-1-2 0,0 2 0,0-1 0,-1 0 0,0 0 0,-1 1 0,0-2 0,-2-12 0,2 19-34,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 1 0,0-1 0,0 0 1,0-1-1,0 2 0,0-1 1,-3-2-1,-1 2-2,0-1 1,0 0-1,0 1 1,0 0-1,0 1 1,-1-1-1,-8 0 1,8 1-146,1 0-1,-1 1 1,0 0 0,0 0 0,1 0-1,-1 1 1,0 0 0,1 0 0,-1 1 0,0-1-1,1 1 1,0 1 0,1-1 0,-2 1-1,-4 4 1,8-4-296,0 1 0,0 0-1,0-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,1 0-1,-1 2 1,1-2 0,0 0-1,1 0 1,-1 1 0,1-1-1,1 7 1,16 16-4687</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4041.76">1164 1417 4498,'0'0'4901,"-22"-15"-2775,-71-46-210,87 58-1753,0 0 0,0 0 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 1,0 0-1,-11 1 0,-7 0 253,23-1-424,0 1-1,1-1 1,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,0 2 0,0 3-88,0-1 0,0-1 1,1 1-1,-1 0 0,1-1 1,1 1-1,-1-1 1,1 0-1,0 1 0,0-1 1,6 6-1,4 1-190,1-1 0,-1 0 0,1 0 0,1-1 0,25 12 0,87 31-835,-83-35 876,58 28 0,-102-46 283,0 0 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 0 1,0 2 0,1-2-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,-30 11 1105,26-10-1048,-35 13 385,11-6-491,0 2 0,1 1 0,0 1 0,-45 28-1,59-25-1913,20-8-1880,28-5 0,17-13 1191,10-15-385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4400.89">1350 1624 1105,'0'0'14534,"9"0"-14486,-28 37 112,-2 5 240,-2 2-400,2 1-224,2-4-672,5-3-1537,9-16-1825,2-14-2001</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4401.89">1579 1174 2961,'0'0'12470,"-19"164"-12294,-2-76-176,-1 6-512,-4 0-881,10-13-2529,11-22-3649</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4830.34">1868 846 8580,'0'0'5058,"-9"16"-8499,9 27 1040,-7 6-625</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5340.48">2023 1030 4338,'0'0'8649,"-10"29"-7920,-73 205 1216,55-131-2765,-22 164 1,50-265 716,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 1,1 0-1,-1-1 0,0 1 1,-1 0-1,0-1 79,1 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,-31-51 539,25 36 53,0-2 0,2 2 0,-5-25 0,9 38-476,0 0 0,0 0 0,0 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0-1,0 1 1,1-1 0,-1 1 0,5-5 0,3 1-144,1-1-1,0 2 1,1 0 0,-2 1 0,2 1 0,19-6-1,80-15-667,-71 17 411,24-2-212,-42 8 454,-2-1-1,1-1 0,0-1 0,25-9 0,-45 13 613,-12 42 863,-19 22-309,18-41-990,1-1 1,1 2 0,1 0 0,1 1 0,0-1-1,3 1 1,1 0 0,-4 39 0,8-56 222,4 24-3884,-3-31 3366,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,0 0 1,1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 0 0,23-14-3130</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.77">2401 1093 2369,'0'0'11285,"-47"60"-12389,33-11-993,10 0-1473,4-8-1952</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6077">2399 1381 3890,'0'0'10495,"-8"20"-9284,-23 65-658,29-81-546,1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,1 1 0,1 5-1,-1-8-14,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,3 2 0,4-1-104,0 0-1,0 0 1,0 0-1,0-1 1,1-1-1,-1 0 0,19-1 1,-21 0-5,-2 1 61,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,-2 0 1,1-1-1,0 1 1,0 0-1,0-1 1,0 0-1,-1 0 1,0 0-1,3-7 1,0-2 126,-1 0 1,-1-1-1,0 0 0,-1 1 1,0-1-1,-1-1 0,-1-13 1,0 28-57,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,-9 6-46,-7 11-435,45-62-2542,-23 37 3224,0 0-1,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1-12 0,-5 21-121,-1 0-1,1 0 0,0-1 1,0 2-1,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 1,-2 2-1,0 3-419,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,-1 1 0,1-1 0,-1 0 0,2 1 0,-1-1 0,-1 12 0,-1 5-3398,-1-1-2181</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9582,8 +9932,8 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4709 907 4466,'0'0'5864,"-2"-8"-4858,1 3-914,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,-5 0 0,-88-20-69,-196-18 0,158 25-24,-974-73-591,-1 67 573,1097 21 33,-549 13 445,455-4-456,1 4-1,0 4 0,-120 36 1,158-28-90,1 2 1,-63 36 0,41-19 89,70-35-11,9-5 17,1 1 1,0 0-1,0 0 1,0 1-1,1 0 1,-16 14-1,19-9 38,0 0-1,1 1 1,0 0-1,1 0 1,0 0-1,-2 20 1,-55 330 1044,30-159-573,-75 522 174,59 5-387,47-584-315,0-144 12,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,2-1 0,49 8 271,-43-7-179,72 5 253,98-5 1,-73-3-227,1007-11 296,7 0-666,664 15-719,-1769-2 984,141-7-21,-142 6 35,1-1 0,0-1 0,-1-1 0,0 0 0,0-1-1,0 0 1,-1-1 0,18-10 0,-27 13-11,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,-1-1-1,-1 1 0,1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-6 0,0-12 23,0-1 1,-3-37-1,0 23-61,-6-931-1222,13 832 1132,34-186-1,-6 73 49,-26 38 91,-8 183-716,-1 30 386,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,-1 2 0,-12 16-4545,1-10 1073</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1394.34">4728 1341 5378,'0'0'7030,"4"-10"-6299,2-2-622,1 0 1,0 1-1,1-1 0,1 1 0,-1 1 0,2 0 0,-1 0 0,2 0 0,11-7 1,182-126 1315,267-138 0,-374 226-1277,751-349 1112,-693 336-1018,-68 31-16,187-88 429,-272 124-635,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,1-2 0,-2 3-68,-18-19-163,1 10 48,0 0 0,-1 1 1,-1 1-1,1 0 0,-1 1 0,0 1 0,-1 1 0,-28-2 1,-19 2 93,-77 4 1,60 1 256,62 2-131,22-3-63,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,35 16-356,133 18 109,-121-27 237,-1 2 0,82 27 0,-125-34 5,0-1 1,0 1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,-1 1 0,0 0-1,0-1 1,0 1 0,-1 0-1,2 5 1,-1-2 45,-1-1 0,0 1 1,-1 0-1,0 0 0,0-1 0,0 1 0,-1 0 1,0 0-1,0-1 0,-1 1 0,0-1 1,-3 8-1,-5 6 134,-1 0 1,0-1-1,-2-1 0,0 0 1,-2-1-1,0 0 0,-20 17 1,-16 20-2225,7 3-4678,40-53 2955</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4708 919 4466,'0'0'5864,"-2"-8"-4858,1 3-914,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,0-2 0,0 1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,-5 0 0,-88-20-69,-196-19 0,158 26-24,-974-74-591,-1 68 573,1097 21 33,-548 13 445,454-4-456,1 4-1,0 4 0,-120 37 1,158-28-90,1 1 1,-63 37 0,41-20 89,70-35-11,9-4 17,1 0 1,0 0-1,0 0 1,0 1-1,1 0 1,-16 14-1,19-9 38,0 0-1,1 2 1,0-1-1,1 0 1,0 0-1,-2 21 1,-55 334 1044,30-162-573,-75 530 174,59 5-387,47-592-315,0-146 12,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,2-1 0,49 8 271,-43-7-179,72 5 253,98-5 1,-73-3-227,1007-11 296,6 0-666,665 15-719,-1769-2 984,141-7-21,-142 6 35,1-2 0,0 0 0,-1-1 0,0 0 0,0-1-1,0 0 1,-1-1 0,18-10 0,-27 13-11,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,-1-2-1,-1 2 0,1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-6 0,0-13 23,0 0 1,-3-38-1,0 24-61,-6-945-1222,13 844 1132,34-188-1,-6 74 49,-26 38 91,-8 185-716,-1 31 386,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,-1 2 0,-12 17-4545,1-11 1073</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1394.34">4727 1359 5378,'0'0'7030,"4"-10"-6299,2-2-622,1 0 1,0 1-1,1-1 0,1 1 0,-1 0 0,2 1 0,-1 0 0,2 0 0,11-7 1,182-128 1315,266-140 0,-373 229-1277,751-353 1112,-693 340-1018,-68 31-16,187-89 429,-272 126-635,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,1-2 0,-2 3-68,-18-19-163,1 10 48,0 0 0,-1 1 1,-1 0-1,1 1 0,-1 1 0,0 1 0,-1 1 0,-28-2 1,-19 2 93,-77 4 1,60 1 256,62 2-131,22-3-63,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,35 16-356,133 19 109,-121-28 237,-1 2 0,82 28 0,-125-35 5,0-1 1,0 1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,-1 1 0,0 0-1,0-1 1,0 1 0,-1 0-1,2 5 1,-1-1 45,-1-2 0,0 1 1,-1 0-1,0 0 0,0-1 0,0 1 0,-1 0 1,0 0-1,0-1 0,-1 1 0,0 0 1,-3 7-1,-5 6 134,-1 0 1,0 0-1,-2-2 0,0 0 1,-2-1-1,0 1 0,-20 16 1,-16 21-2225,7 3-4678,40-54 2955</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9611,16 +9961,16 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1290 4994,'0'0'8092,"3"-2"-7825,81-37 497,-58 28-684,0-1 1,-1-1-1,31-20 1,-44 22-94,1 0 1,-2-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,-2-1-1,0 0 1,0-1 0,-2 0 0,0 0 0,0 0 0,-2-1 0,4-19-1,2-17-101,-3-1 0,0-105-1,-7 162 69,0 24 57,1 0 1,1 0-1,1-1 1,12 43 0,-12-61 11,0-1 1,0 1-1,1-1 1,0 0-1,0 0 1,1 0-1,1 0 1,-1-1-1,8 8 1,-8-11-35,-1 0 0,1 0 1,-1-1-1,1 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,1-1 1,-1-1-1,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,9-1 1,-9 1-9,0-1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 0 1,0 0 0,-1 0-1,3-8 1,38-112 51,-12 32 4,-12 181 195,-16-48-175,-3-29-37,1 0 0,0 1 0,1-1 1,0 0-1,1 0 0,0 0 0,7 14 0,-10-24-18,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,24-20 195,5-18-90,-16 20-122,0 1 1,30-30 0,-43 48 4,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 2 0,14 20 6,-13-19 11,23 43 240,-17-29-165,2 1 1,0-1-1,2-1 0,-1 1 0,2-2 0,0 0 0,17 16 0,-25-28-54,0-1 0,1 1-1,-1-1 1,1 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0-1 0,0 0-1,-1 0 1,6-3 0,3-1-14,-1 0 1,0-1-1,0 0 1,-1-1-1,0-1 1,0 0-1,13-15 1,-22 23-87,-1-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1 0 0,1 0 1,-2-3-1,0 2-225,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,-1-1-1,0 1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0 0 0,-5-2-1,-43-14-3753</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="353.19">555 222 6531,'0'0'6275,"-2"-52"-6611,2 64-1009,0 16-704,9 14 528,7 4-1456</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.41">1447 791 6979,'0'0'3532,"-8"-11"-3243,-26-32 143,31 42-399,0-1 1,0 0 0,0 1-1,0 0 1,-1-1 0,1 1-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 1 0,-3 1-1,-4 3-12,0 0-1,1 0 1,-1 1-1,2 0 0,-1 0 1,1 1-1,0 0 1,0 1-1,1 0 1,1 0-1,-1 0 0,2 1 1,-7 13-1,6-11 12,1 1-1,0-1 0,1 1 0,0 0 0,1 0 1,1 0-1,0 1 0,1-1 0,0 0 1,3 26-1,-1-36-43,0 1 0,0-1 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1-1,-1-1 1,1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,4-1 0,2 2-17,0-1-1,1-1 1,-1 0-1,0 0 1,1-1-1,-1 0 1,0-1-1,0 0 1,12-4-1,-11 1-4,0-1-1,0 0 1,0 0-1,-1-1 0,0-1 1,-1 0-1,1 0 1,-2-1-1,1 0 1,-1 0-1,-1-1 1,0 0-1,0 0 0,10-22 1,-4 5-32,-2 0 1,-1 0-1,-1-1 0,-2-1 0,5-33 1,-5-2 212,-4-1-1,-5-76 1,-2 117 689,-1 32-442,-2 38-421,6-19 23,-3 17 110,3-1 1,2 0-1,1 0 0,10 46 1,-9-77-70,0 1 0,1-1 1,1-1-1,0 1 0,0-1 1,1 0-1,1 0 1,7 10-1,-8-14-27,0 0 0,0-1 0,1 0-1,0 0 1,0 0 0,1-1 0,-1 0 0,1 0 0,0-1 0,1 0 0,-1-1 0,14 5 0,-14-6 9,-1 0 0,1 0 0,0-1 0,0 0 0,0 0 0,0-1 1,0 0-1,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,0-1 0,0 0 0,8-6 0,-8 5-8,-1-1 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 0-1,-1 0 1,1 0 0,-2-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,-1-1-1,0 1 1,-1 0 0,0 0 0,0-12-1,0 13 9,-1-4-60,0 0 0,0 0-1,-1 0 1,0 0 0,-4-14 0,5 23 53,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,-2 1 0,2 0 7,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1 0 1,-4 7-1,-26 67 351,28-67-338,0 1 1,0-1-1,1 1 1,0 0 0,1 0-1,0 0 1,1 0-1,1-1 1,-1 1-1,2 0 1,0 0 0,5 19-1,-4-24-52,0 1 0,0-1 0,0 1-1,1-1 1,0 0 0,1-1 0,-1 1 0,1-1 0,0 0-1,0 0 1,1 0 0,0 0 0,0-1 0,0 0 0,0 0-1,0-1 1,1 0 0,0 0 0,-1 0 0,12 2 0,0-1-583,1 0 1,0-2 0,0 0 0,0 0 0,0-2-1,0-1 1,0 0 0,0-1 0,0-1 0,22-6-1,22-18-2764</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1393.83">2411 711 6035,'0'0'7523,"-17"24"-6917,12-16-538,-39 57 225,-37 72-1,66-103-538,11-23 14,-1 0 0,0 0 1,-11 16-1,10-26-937,3-12 735,2-14-94,1 24 522,-2-55-702,0 34 754,1 0 1,1-1-1,1 1 1,8-43 0,-9 64 16,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,3-1 0,-1 0 8,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,-1-1 0,0 1 0,6 2 0,1 2 83,0 0-1,0 0 1,0 1-1,-1 0 0,14 11 1,-2 2 134,-2 1 0,-1 1-1,25 35 1,-6 12-1066,-32-56-291,-1 0-1,0-1 0,4 26 0,-7-24-2609,-1-7-2796</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.65">3779 49 4306,'0'0'10159,"-10"-11"-9681,4 5-443,4 2-23,-1 1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-3-1 0,5 4-11,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-3 1 0,-36 40-37,2 1 1,-53 81-1,-49 110 305,101-161-33,2 1 0,-40 123 0,66-162-210,2 0 0,1 0 0,2 1 0,1 0 0,3 0 0,0 0 0,3 0 0,6 45 0,-4-66-45,1 0 0,0-1 0,1 1 0,1-1 0,0 0 0,2-1 0,-1 0 0,2 0 1,0 0-1,18 20 0,-11-16 79,1-2 1,1 0-1,0-1 1,1-1 0,1 0-1,38 19 1,-21-16-165,0-2 0,0-1 0,1-2 0,1-2 0,0-1 0,1-2 0,-1-2 0,65 1 0,-100-5-373,-3-1 381,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0-1-1,1-12-3734</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.99">5132 538 5603,'0'0'8692,"-1"-6"-8350,1 6-342,-1-1 0,1 1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,-20 28 254,1 1 1,-29 65-1,20-37-25,-7 13-110,3 0 0,4 2 0,3 1 0,-29 147 0,50-187-180,4-27-52,1-24 119,5-18-171,2 1-1,2-1 0,0 1 1,30-59-1,-19 44-89,12-33 61,16-40-241,84-150 0,-117 255 720,-16 17-274,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,13 34 191,-13-31-260,16 81 346,-3 0-1,-4 1 1,-2 113 0,-7-168-292,1 4 10,10 64 0,-10-88-120,1 1 1,0-1-1,0 0 0,1-1 0,1 1 0,0-1 1,0 0-1,1 0 0,12 15 0,-17-23-104,0-1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1-1-1,1 0 1,10-7-3059</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3193.82">4835 1018 8868,'0'0'4818,"163"-24"-4722,-55 14 48,12-2-288,-5 4 80,-7 4-1104,-25 4-2658,-28 0-928</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3597.36">5355 845 5747,'0'0'7982,"21"0"-7731,-15-1-236,4 0 5,1 1 1,-1 0-1,1 0 0,-1 1 1,1 0-1,-1 1 0,1 0 1,-1 1-1,0 0 0,0 0 1,-1 1-1,1 0 0,-1 1 1,16 9-1,-12-2-4,0-1 0,0 2-1,-2-1 1,1 2 0,-2-1 0,0 1 0,0 1 0,9 19 0,-15-24-12,1 0 1,-1 0 0,-1 1 0,0-1 0,0 1 0,-1-1 0,0 1 0,-1 0 0,-1 0 0,1 0-1,-2 0 1,0-1 0,0 1 0,-4 14 0,3-20 61,0-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,0 0-1,0 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,-1-1-1,-5 2 0,9-6 63,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,2 0 0,-1 0 0,0 0 0,1-3 0,-1 0 4,1-9-210,0 0 0,1 0 0,0 0 0,1 1 0,1-1 0,0 1 0,1 0-1,0 0 1,1 0 0,0 1 0,1-1 0,1 2 0,0-1 0,1 1 0,0 0 0,1 1-1,0 0 1,0 0 0,1 1 0,16-10 0,-23 16-263,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,10-3 0,16 2-6015,-21 3 750</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4337.97">5865 918 6627,'0'0'5853,"21"8"-5484,-5-1-285,-2-2 26,-1 0 0,0 1 0,-1 1 0,1 0 1,-1 0-1,0 1 0,-1 1 0,19 17 0,-23-18-100,0 0 1,0 0-1,-1 1 0,0 0 1,0 0-1,-1 0 1,0 1-1,-1-1 0,0 1 1,-1 0-1,0 0 1,0 1-1,-1-1 0,-1 0 1,0 1-1,0-1 1,-1 1-1,0 0 0,-3 15 1,1-23 72,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1 0,-6-1-1,9-1-43,-1 1 0,1 0-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,1 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0-1 0,1-27-46,-1 22 46,1 1-120,1-1 1,-1 1-1,1 0 1,1-1-1,-1 1 1,1 0-1,0 0 0,1 0 1,-1 1-1,1-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,1 1-1,-1 1 1,10-6-1,15-9-702,1 2 1,47-17-1,-73 30 679,255-95-3883,-257 97 4009,0 0-1,0-1 1,0 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,3-4-1,-4-4 1186,-20 5-53,5 6-918,-1 0 0,0 0 0,1 2-1,-1 0 1,1 1 0,0 0 0,0 1-1,0 0 1,1 1 0,0 1 0,0 0 0,0 0-1,1 2 1,0-1 0,1 1 0,0 1-1,0 0 1,1 1 0,-15 20 0,22-27-231,-1 1 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0-1,0-1 1,0 1 0,1 11 0,1-14-58,-1 1-1,0-1 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,0 0 1,0 1-1,0-1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 0 1,0-1-1,0 1 1,4-1-1,9 2-217,-1-1 0,0-1 0,0-1 0,1 0 0,-1-1 0,0-1-1,0 0 1,-1-1 0,1-1 0,-1 0 0,23-11 0,-28 11 197,0-1 0,-1 0 1,1 0-1,-1-1 1,0 0-1,-1 0 0,0-1 1,0 0-1,-1-1 1,0 1-1,0-1 0,-1-1 1,0 1-1,-1-1 1,0 0-1,-1 0 0,5-15 1,-8-15 2241,-9 26 159,8 14-2277,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-2 1 0,-1 4-49,-1 0-1,1 0 1,0 0-1,1 0 0,0 0 1,0 1-1,0-1 1,0 1-1,1-1 0,0 10 1,0-12-25,1-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,1 1 1,2 2-1,3-2-79,0 0 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 0 0,-1 0 1,1-1-1,0 0 0,15-2 0,-5 0-172,1-1 1,0-1-1,31-12 1,-29 8-109,0-1 0,-1-1 0,0-1 0,0 0 0,20-18 0,-34 25 345,-1-1 0,0 0-1,0 0 1,-1-1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,-2 0 0,1 1 0,-1-1-1,0-1 1,0 1 0,-1 0-1,0-1 1,-1 1 0,2-15-1,-3 21 144,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0-72,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 2 0,0 0-63,1 0-1,0 1 0,-1-1 1,1 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,0 0-1,-1 0 0,1 1 1,1-1-1,-1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,4 4 1,-2-3-82,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0 0,7 1-1,9 0-336,0 0 1,1-1-1,-1-1 1,0-1-1,27-3 1,-37 2 366,0 0 0,0 0 0,0-1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-2 0 0,1-1 0,-1 0 0,0 0 0,12-16 0,-13 14 330,-1-1 1,1 0 0,-2 0 0,1-1 0,-2 1-1,1-1 1,-1 0 0,-1 0 0,0 0-1,0-17 1,-3-3 710,0 25-648,1-1 0,-1 1-1,1 0 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,1 0 1,2-7 0,-3 14-310,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 2 0,40 114-53,40 197 1,-67-238 104,-4 0 1,-2 0 0,-9 145-1,0-200-51,-1 0 0,-1 0 0,-1-1 0,-1 1-1,-1-1 1,-1 0 0,-12 22 0,17-34 21,-1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1-2 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-11 2 0,14-4 53,1 0 0,-1 0 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-6-6-1,5 3-25,-1 0 0,1-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,2-1 0,-1 1 0,-3-11 0,1-3-176,0 0-1,1 0 1,2 0 0,0 0-1,1-1 1,1-33 0,1 48-111,1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,9-9 0,-4 6-845,1 1 0,-1 0 0,1 0 0,15-8 0,30-12-7066</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5187.42">8278 1223 2401,'0'0'12793,"3"15"-11934,-5-9-809,1 0 1,-1-1 0,0 1-1,-1 0 1,1-1 0,-1 0 0,0 1-1,0-1 1,-1 0 0,0 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,0 0 0,0 0-1,-8 5 1,10-42 736,3 28-779,1 0-1,0 1 0,0-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,0 0 1,1 0-1,5-7 0,-6 9-21,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,2 1 0,-3-1 6,0 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-2 0 1,1 1-1,-1 2 0,1-2 41,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-3 3 0,4-6 3,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-2-1,1 1 1,-4 0 0,4-1-18,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,0-2-44,1-1 1,-1 1 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,3-8 0,-2 11 1,-1-1 1,1 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0-1,-1 0 1,5 1 0,-5-1-19,-1 0-271,-2 3 303,1 0 0,-1 0 0,0-1 0,0 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-5 3 0,4-3 30,-1 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 1,-6 1-1,9-2-103,0-24-403,2 10 345,-1 14 88,4-37 138,-3 34-106,1 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 1,0 0-1,3-3 0,-5 4 17,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,1 2 0,3 5 23,-1 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,0 1 0,0 0 0,-1-1 1,0 1-1,-1 0 0,2 12 0,-1 16 77,-1 42-1,-1-65-88,-2 2-46,0-1 0,-1 1 0,0-1 0,-1 0 0,-1 0 0,0 0 0,-1-1 0,0 0 0,-2 0 0,1 0 0,-1-1 0,-1 0 0,0 0 0,-14 12 0,-11 10-983,-2-2-1,-1-1 1,-43 28 0,-31 10-3411,-1-12-1654</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1315 4994,'0'0'8092,"3"-2"-7825,81-38 497,-58 29-684,0-1 1,-1-2-1,31-19 1,-44 22-94,1-1 1,-2 0 0,0 0 0,-1-1 0,0-1 0,0 1 0,-2-1-1,0 0 1,0-2 0,-2 1 0,0 0 0,0-1 0,-2 0 0,4-19-1,2-18-101,-3-2 0,0-106-1,-7 165 69,0 25 57,1 0 1,1-1-1,1 0 1,12 43 0,-12-62 11,0-1 1,0 2-1,1-2 1,0 0-1,0 0 1,1 0-1,1 0 1,-1-1-1,8 9 1,-8-12-35,-1 0 0,1 0 1,0-1-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,1-1 1,-1-1-1,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,9-1 1,-9 1-9,0-1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,-1-2 1,1 2 0,-1-1-1,0 0 1,0 0 0,-1 0-1,3-8 1,38-115 51,-12 33 4,-12 185 195,-16-49-175,-3-30-37,1 0 0,0 2 0,1-2 1,0 0-1,1 0 0,0 0 0,7 15 0,-10-25-18,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,24-20 195,5-19-90,-16 21-122,0 0 1,30-30 0,-43 49 4,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 2 0,14 21 6,-13-20 11,23 44 240,-17-30-165,2 2 1,0-2-1,2-1 0,-1 2 0,2-3 0,0 0 0,17 17 0,-25-29-54,0-1 0,1 1-1,-1-1 1,1 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0-1 0,0 0-1,-1 0 1,6-3 0,3-1-14,-1 0 1,0-2-1,0 1 1,-1-1-1,0-1 1,0 0-1,13-16 1,-22 24-87,-1-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 0 0,0 1 0,-1 0 0,1 0 1,-2-3-1,0 2-225,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,-1-1-1,0 1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0 0 0,-5-2-1,-43-15-3753</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="353.19">556 226 6531,'0'0'6275,"-2"-53"-6611,2 66-1009,0 15-704,9 15 528,7 4-1456</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.41">1449 806 6979,'0'0'3532,"-8"-11"-3243,-26-33 143,31 43-399,0-1 1,0 0 0,0 1-1,-1 0 1,0-1 0,1 1-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 1 0,-3 1-1,-4 3-12,0 0-1,1 1 1,-1 0-1,2 0 0,-1 0 1,1 1-1,0 0 1,0 1-1,1 1 1,1-1-1,-1 0 0,2 1 1,-7 14-1,6-12 12,1 1-1,0-1 0,1 2 0,0-1 0,1 0 1,1 0-1,0 2 0,1-2 0,0 0 1,3 27-1,-1-37-43,0 1 0,0-1 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,2 0 0,-1 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,0 1-1,-1-1 1,1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,4-1 0,2 2-17,0-1-1,1-1 1,-1 0-1,0 0 1,1-1-1,-1 0 1,0-1-1,0 0 1,12-4-1,-11 1-4,0-1-1,1 0 1,-1-1-1,-1 0 0,0-1 1,-1 0-1,1 0 1,-2-1-1,1 0 1,-1-1-1,-1 0 1,0 0-1,0 0 0,10-23 1,-4 6-32,-2-1 1,-1 1-1,-1-2 0,-2-1 0,5-33 1,-5-2 212,-4-1-1,-5-78 1,-2 120 689,-1 32-442,-2 39-421,6-20 23,-3 18 110,3-1 1,2 0-1,1 0 0,10 46 1,-9-78-70,0 2 0,1-2 1,1-1-1,0 1 0,0 0 1,1-1-1,1 0 1,7 10-1,-8-13-27,0-1 0,0-1 0,1 0-1,0 0 1,0 0 0,1-1 0,-1 0 0,1 0 0,0 0 0,1-1 0,-1-1 0,14 5 0,-14-6 9,-1 0 0,1 0 0,0-1 0,0 0 0,0 0 0,0-1 1,0 0-1,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,0-1 0,0 0 0,8-7 0,-8 6-8,-1-1 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1-1-1,-1 1 1,1 0 0,-2-1 0,1 0-1,-1 1 1,0-1 0,0-1 0,-1 0-1,0 1 1,-1 0 0,0 0 0,0-13-1,0 14 9,-1-4-60,0 0 0,0 0-1,-1-1 1,0 1 0,-4-14 0,5 23 53,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,-2 1 0,2 0 7,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-4 7-1,-26 68 351,28-67-338,0 0 1,0-1-1,1 1 1,0 0 0,1 1-1,0-1 1,1 0-1,1-1 1,-1 2-1,2-1 1,0 0 0,5 20-1,-4-25-52,0 1 0,0-1 0,0 1-1,1-1 1,0 0 0,1-1 0,-1 1 0,1 0 0,0-1-1,0 0 1,1 0 0,0 0 0,0-1 0,0 0 0,0 0-1,0-1 1,1 0 0,0 0 0,-1 0 0,12 3 0,0-2-583,1 0 1,0-2 0,0 0 0,0 0 0,0-2-1,0-1 1,0 0 0,0-1 0,0-1 0,22-7-1,22-17-2764</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1393.83">2414 725 6035,'0'0'7523,"-17"24"-6917,12-16-538,-39 59 225,-38 72-1,67-104-538,11-24 14,-1 0 0,0 1 1,-11 15-1,10-26-937,3-12 735,2-15-94,1 25 522,-2-56-702,0 35 754,1-1 1,1 0-1,1 1 1,8-45 0,-9 66 16,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,3-1 0,-1 0 8,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,-1-1 0,0 1 0,6 2 0,1 2 83,0 0-1,0 0 1,1 1-1,-2 0 0,14 12 1,-2 1 134,-2 2 0,-1 0-1,25 36 1,-6 12-1066,-32-56-291,-1-1-1,0-1 0,4 27 0,-7-25-2609,-1-7-2796</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.65">3783 50 4306,'0'0'10159,"-10"-11"-9681,4 5-443,4 2-23,-1 0-1,0 1 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-3-1 0,5 4-11,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-3 1 0,-36 41-37,2 1 1,-53 82-1,-49 113 305,101-165-33,2 2 0,-41 125 0,67-166-210,2 1 0,1 0 0,2 1 0,1-1 0,3 1 0,0 0 0,3-1 0,6 47 0,-4-68-45,1 1 0,0-2 0,1 1 0,1 0 0,0-1 0,2-1 0,-1 0 0,2 1 1,0-1-1,19 21 0,-12-17 79,1-2 1,1 1-1,0-2 1,1-1 0,1 0-1,38 20 1,-21-17-165,0-1 0,0-2 0,1-2 0,1-2 0,0 0 0,1-3 0,-1-2 0,65 1 0,-100-5-373,-3-1 381,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0-1-1,1-12-3734</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.99">5138 548 5603,'0'0'8692,"-1"-6"-8350,1 6-342,-1-1 0,1 1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,-21 29 254,2 1 1,-29 65-1,20-37-25,-7 14-110,3-1 0,4 3 0,3 0 0,-29 150 0,50-190-180,4-28-52,1-24 119,5-19-171,2 2-1,2-2 0,0 1 1,30-60-1,-19 45-89,12-33 61,16-42-241,85-152 0,-118 260 720,-16 17-274,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,13 35 191,-13-32-260,16 82 346,-3 1-1,-4 1 1,-2 115 0,-7-172-292,1 5 10,10 65 0,-10-90-120,1 1 1,0-1-1,0 1 0,1-2 0,1 1 0,0-1 1,0 0-1,1 1 0,12 14 0,-17-23-104,0-1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1-1-1,1 0 1,10-7-3059</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3193.82">4840 1038 8868,'0'0'4818,"163"-25"-4722,-54 15 48,11-2-288,-5 4 80,-7 4-1104,-25 4-2658,-28 0-928</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3597.36">5361 861 5747,'0'0'7982,"21"0"-7731,-15-1-236,4 0 5,1 1 1,-1 0-1,1 0 0,-1 1 1,1 0-1,-1 1 0,1 0 1,-1 1-1,0 1 0,0-1 1,-1 1-1,1 0 0,-1 1 1,16 9-1,-12-2-4,0 0 0,0 1-1,-2-1 1,1 2 0,-2 0 0,0 0 0,0 1 0,9 20 0,-15-25-12,1 0 1,-1 0 0,-1 2 0,0-2 0,0 1 0,-1-1 0,0 1 0,-1 1 0,-1-1 0,1 0-1,-2 0 1,0-1 0,0 2 0,-4 13 0,3-20 61,0-1 1,0 1-1,-1 0 0,1 0 0,-1-1 1,0 0-1,0 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,-1-1-1,-5 2 0,9-6 63,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,2 0 0,-1 0 0,0 0 0,1-3 0,-1 0 4,1-10-210,0 1 0,1 0 0,0 0 0,1 0 0,1 0 0,0 1 0,1 0-1,0-1 1,1 1 0,0 1 0,1-1 0,1 1 0,0 0 0,1 1 0,0 0 0,1 1-1,0-1 1,0 1 0,1 1 0,16-10 0,-23 16-263,1 0 0,-1-1 0,1 2 0,0-1 0,0 1 0,10-3 0,16 2-6015,-21 3 750</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4337.96">5871 936 6627,'0'0'5853,"21"8"-5484,-5-1-285,-2-2 26,-1 0 0,0 1 0,-1 2 0,1-1 1,-1 0-1,0 1 0,-1 1 0,20 18 0,-24-19-100,0 0 1,0 0-1,-1 1 0,0 0 1,0 1-1,-1-1 1,0 1-1,-1-1 0,0 1 1,-1 1-1,0-1 1,0 1-1,-1-1 0,-1 0 1,0 2-1,0-2 1,-1 1-1,0 0 0,-3 16 1,1-24 72,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1-1 0,-1 1-1,1-1 1,1 1 0,-6-1-1,9-1-43,-1 1 0,1 0-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,1 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0-1 0,0 2-1,0-1 1,0 0 0,0 1-1,0-1 1,0-1 0,1-27-46,-1 22 46,1 1-120,1-2 1,-1 2-1,1 0 1,1-1-1,-1 1 1,1 0-1,0 0 0,1 0 1,-1 1-1,2-2 1,-1 2-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,1 1-1,-1 1 1,10-6-1,15-10-702,1 3 1,47-18-1,-73 31 679,255-97-3883,-257 99 4009,0 0-1,0-1 1,0 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,3-4-1,-4-4 1186,-20 5-53,5 6-918,-1 0 0,0 0 0,1 2-1,-1 0 1,1 1 0,0 0 0,0 1-1,0 0 1,1 1 0,0 1 0,0 0 0,0 1-1,1 1 1,0-1 0,1 1 0,0 1-1,0 1 1,1 0 0,-15 20 0,22-27-231,-1 2 0,1-1-1,0 0 1,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0-1,0-1 1,0 1 0,1 11 0,1-14-58,-1 2-1,0-2 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,0 0 1,0 1-1,0-1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 2-1,0-2 1,-1 0-1,1 0 1,0-1-1,0 1 1,4-1-1,9 2-217,-1-1 0,0-1 0,0-1 0,1 0 0,-1-1 0,0-1-1,0-1 1,-1 0 0,1-1 0,-1 0 0,23-11 0,-28 11 197,0-1 0,-1 0 1,1-1-1,-1 0 1,0 0-1,-1 0 0,0-1 1,0 0-1,-1-1 1,0 0-1,0 0 0,-1-1 1,0 1-1,-1-1 1,0-1-1,-1 1 0,5-15 1,-8-16 2241,-9 27 159,8 14-2277,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-2 1 0,-1 4-49,-1 0-1,1 0 1,0 0-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 0,0 10 1,0-11-25,1-2 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,0-1-1,0 1 1,0-1-1,1 1 1,2 2-1,3-2-79,0 0 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 0 0,-1 0 1,1-1-1,0 0 0,15-2 0,-5 0-172,1-1 1,0-1-1,31-12 1,-29 8-109,0-2 0,-1 0 0,0-1 0,0 0 0,21-19 0,-35 26 345,-1-1 0,0 0-1,0 0 1,-1-1 0,0 0-1,0-1 1,0 1 0,-1 0-1,1-1 1,-2 0 0,1 1 0,-1-1-1,0-1 1,0 0 0,-1 1-1,0-1 1,-1 1 0,2-15-1,-3 21 144,0 0 1,0 1-1,0-1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0-72,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 0-1,-1 2 0,0 0-63,1 0-1,0 1 0,-1-1 1,1 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,0 0-1,-1 0 0,1 1 1,1-1-1,-1 0 1,0 1-1,1-2 0,-1 1 1,1 0-1,4 4 1,-2-3-82,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0 0,7 1-1,9 0-336,0 1 1,1-2-1,-1-1 1,0-1-1,27-3 1,-37 2 366,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-2 0 0,1-2 0,-1 1 0,0 0 0,12-16 0,-13 13 330,-1 0 1,1 0 0,-2 0 0,1-1 0,-2 0-1,1 0 1,-1 0 0,-1 0 0,0 0-1,0-18 1,-3-3 710,0 26-648,1-1 0,-1 1-1,1 0 1,0 0 0,1-1-1,-1 1 1,1 0 0,0-1-1,1 1 1,2-7 0,-3 14-310,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 2 0,40 117-53,40 200 1,-67-243 104,-4 1 1,-2-1 0,-9 149-1,0-205-51,-1 0 0,-1 1 0,-1-2 0,-1 2-1,-1-2 1,-1 0 0,-12 23 0,17-35 21,-1-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0-1 0,-1 1 0,1-2 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-11 2 0,14-4 53,1 0 0,-1 0 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-6-6-1,5 3-25,-1 0 0,1-2 0,0 1 0,1 0 0,0 0 0,-1 0 0,2-1 0,-1 1 0,-3-12 0,1-2-176,0 0-1,1-1 1,2 1 0,0-1-1,1 0 1,1-34 0,1 49-111,1 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,9-8 0,-4 6-845,1 1 0,-1 0 0,1 0 0,15-9 0,30-11-7066</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5187.42">8287 1247 2401,'0'0'12793,"3"15"-11934,-5-9-809,1 0 1,-1-1 0,0 1-1,-1 1 1,1-2 0,-1 0 0,0 1-1,0-1 1,-1 0 0,0 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,0 1 0,0-1-1,-8 5 1,10-43 736,3 29-779,1 0-1,0 1 0,0-1 1,1 1-1,-1-1 1,1 1-1,0-2 1,0 2-1,0 0 1,1 0-1,5-7 0,-6 9-21,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,2 1 0,-3-1 6,0 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-2 0 1,1 1-1,-1 3 0,1-3 41,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-3 4 0,4-7 3,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-2-1,1 1 1,-4 0 0,4-1-18,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,-1-1 1,0-2-44,1-1 1,-1 1 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,1 0 1,0-1 0,0 0 0,3-7 0,-2 11 1,-1-1 1,1 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0-1,-1 0 1,5 1 0,-5-1-19,-1 0-271,-2 3 303,1 0 0,-1 0 0,0-1 0,0 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-5 4 0,4-4 30,-1 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 1,-6 1-1,9-2-103,0-24-403,2 9 345,-1 15 88,4-37 138,-3 34-106,1-1 1,0 1-1,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 1,0 0-1,3-3 0,-5 4 17,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,1 2 0,3 5 23,-1 0-1,0 0 0,0 1 0,0-1 1,-1 0-1,0 1 0,0 0 0,-1-1 1,0 1-1,-1 1 0,2 11 0,-1 17 77,-1 42-1,-1-66-88,-2 3-46,0-2 0,-1 1 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-1 0 0,0-1 0,-2 0 0,1 0 0,-1 0 0,-1-1 0,0 0 0,-14 13 0,-11 9-983,-2-1-1,-1-2 1,-43 30 0,-31 9-3411,-2-12-1654</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9702,17 +10052,17 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6304 510 5122,'0'0'10803,"3"-19"-9328,-4 27-1510,-1-1-1,1 1 1,-1-1-1,-1 0 1,1 0-1,-1 0 1,-1 0-1,1-1 1,-6 8-1,0 2 90,-52 94 206,5 2 1,-57 165-1,111-268-264,-2-1-13,1 0 1,1 1-1,0-1 0,0 1 0,0-1 0,1 1 0,1 0 0,0 0 0,0-1 1,2 14-1,-1-21 24,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,2-1 0,42 1 319,-33-1-179,18 1 32,-1-2 1,1-1-1,0-1 1,-1-2-1,0 0 1,0-2-1,-1-1 0,0-2 1,-1 0-1,0-2 1,29-17-1,-52 26-122</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="529.14">6683 883 480,'0'0'12614,"-36"56"-9570,33-50-2960,1 0-1,0 0 1,0 0-1,0 1 1,1-1-1,0 0 1,0 1-1,0-1 1,1 8-1,24-15 427,-20-1-429,-1-1 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1-1,0 1 1,2-6-1,10-23 507,-9 16-2976</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="914.63">7462 502 7283,'0'0'7086,"-23"-5"-6872,10 2-193,6 0-1,0 1-1,0 0 0,0 0 0,0 1 1,0 0-1,0 0 0,-1 1 0,1 0 1,0 0-1,0 1 0,-1-1 1,1 1-1,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0 0 1,1 1-1,-11 7 0,-4 7 129,0 1 0,1 1 0,1 1-1,1 1 1,2 0 0,0 1 0,-15 29 0,22-35-88,1 1 1,1 0-1,0 0 0,2 0 1,0 1-1,1-1 1,1 1-1,1 0 0,0 1 1,2-1-1,2 24 1,-2-40-53,1 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,0 0-1,0 1 0,5-1 0,12 2-141,-1-2 0,1 0 0,24-3 0,-38 3-19,55-11-5027,-41 5 169</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1240.08">7700 1098 4866,'0'0'9381,"-79"153"-7829,37-105-655,4-2-193,1-6-448,5-6-112,2-4-288,6-8-592,8-8-1185,4-6-1024,5-8-1730</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1840.63">8367 598 5523,'0'0'7486,"-12"20"-6870,-143 282 1833,143-275-2375,8-15-26,0 0 0,-2 0 0,1-1 0,-2 0 0,1 0 1,-2 0-1,1-1 0,-2 1 0,-9 8 0,18-19-26,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,1 1 0,0-23 408,1 12-417,1-1 0,0 0 0,1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,9-12 0,65-79-82,10 5 21,-78 86 26,0 1 0,0 0 0,1 0-1,0 2 1,1 0 0,20-9 0,-31 15 8,0 0 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,6 2 1,-8-1 4,0 0 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 3 1,0 0-3,1 0 0,-1-1 0,0 1 1,0 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,-4 5 0,1-3-15,0 0-1,-1-1 1,1 0 0,-2 0-1,1 0 1,0 0 0,-1-1-1,-10 5 1,-16 7-328,-1-1 0,0-2-1,-44 12 1,77-24 375,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,1 0 0,3 36 37,1-26-5,0 1-1,1 0 1,0-1 0,1 0 0,0 0 0,1-1-1,16 18 1,28 22-1121,0-12-3294,-29-29 9,-2-7-1879</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2262.66">8681 1066 6035,'0'0'9156,"0"-24"-10645</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2652.59">9051 739 4994,'0'0'3730,"-10"19"-2807,-29 49 340,-56 75 1,72-115-917,-29 41 179,48-63-311,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0 1 0,0-1-1,1 1 1,0-1 0,0 8 0,23-14 1436,3-1-1509,0-1 1,1-2-1,-1 0 0,-1-2 1,34-11-1,2-4-3016,-3-2-3427,-24 9 859</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2978.76">9346 436 5987,'0'0'10997,"12"-4"-10594,-9 3-388,0-1-4,0 1-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 0,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 1 1,2 2-1,7 8 42,-1 1 0,0 0 0,-1 0 0,-1 1-1,0 1 1,-1-1 0,-1 1 0,0 1 0,-2-1 0,0 1 0,4 24 0,-3-7 10,-3 0 0,-1-1 0,-1 1 1,-8 67-1,4-87-80,0 0 0,0 0 0,-2-1 0,1 1 0,-2-1 0,0-1 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 0 0,-1 0 0,0-1 0,-1-1 0,0 0 0,-18 12 0,11-10-383,0-1 1,-1 0-1,0-1 0,-36 11 0,34-14-770,0 0 0,-1-2 0,0-1 0,-30 2 0,-5-5-4690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3341.28">9665 101 4418,'0'0'10093,"0"-4"-7394,11 6-2368,10 10-295,-2 1 0,0 1-1,0 1 1,-1 0 0,-1 1 0,-1 1-1,0 0 1,-1 1 0,-2 1-1,1 0 1,-2 1 0,-1 0 0,13 33-1,-7-11-22,-3 0-1,-1 2 0,-3 0 0,-1 0 1,4 89-1,-11-74 4,-3 1 1,-2-1-1,-3 0 0,-3 0 0,-20 73 1,19-100-29,-1-1 1,-2 0 0,0 0 0,-3-1-1,0-1 1,-2-1 0,-1 0 0,-2-1-1,0-1 1,-2-1 0,-27 23 0,18-23-172,-1-2 1,-1-1 0,-2-1-1,0-2 1,0-1 0,-47 15-1,-20 1-1413,-115 23 0,48-22-2014,14-10-2659</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4890.18">414 289 4226,'0'0'4466,"-6"-11"-3975,-17-37 163,21 44-476,0-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,1-6-1,0-1 2267,-5 38-2736,-138 561 1140,5-26 217,120-476-791,5 0 0,-2 89 0,11-170-357,-4-12-169,-4-13-793,-11-63-4761,14 25 1061</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7197.37">370 1 2673,'0'0'5349,"18"7"-4180,22 7-627,0-2 1,1-1-1,50 6 0,132 8-260,-116-15-103,309 36 145,398 38-127,-166-21-211,-222-20-66,-17-9 59,366 42 24,61 17-1012,-408-57 1036,388 29-449,-179-15-1144,-480-38 992,247 10-938,10-14-2458,3 0 3874,-392-10 568,-1-1-1,1-1 1,-1 0 0,0-2-1,39-15 1,39-10-666,-56 22-10,-1-2-1,-1-2 1,0-2 0,51-25-1,-84 35 213,0 1-1,0 0 1,1 0-1,0 1 1,-1 1-1,1 0 1,18-2-1,91 5-960,-54 0 691,-11 0-326,81 10 0,-115-8 716,-1 1 0,1 1-1,-1 1 1,0 0-1,0 2 1,36 19-1,-55-24 32,-1 0 1,1 0-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,-1 5 1,2 7-33,-3 8 121,0 0 1,-2 0-1,0 0 0,-2-1 1,-1 0-1,0 0 1,-2 0-1,-14 22 0,-20 52 804,-25 88 104,-99 224 460,112-294-1422,9-16 70,-87 135 1,122-215 4,-1-1 0,-1 0 1,-20 18-1,30-30-192,-1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-9 0-1,-71-5 324,0-4 0,-135-31 0,87 14-199,-683-84-215,671 92 17,-797-160 120,-38-4 0,-194-19 64,771 119-150,367 74-37,-960-147-16,-32 127-152,325 109 402,658-75-236,-262 58 57,121-23 34,-272 37 372,422-73-338,-19 2 152,55-8-294,-13-4-7475,-2-14-339</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6277 519 5122,'0'0'10803,"3"-19"-9328,-4 27-1510,-1-1-1,1 1 1,-1-1-1,-1 0 1,1 0-1,-1 0 1,-1 1-1,1-2 1,-6 8-1,0 2 90,-52 96 206,6 2 1,-58 168-1,111-273-264,-2-1-13,1 0 1,1 1-1,0 0 0,0 0 0,0-1 0,1 1 0,1 0 0,0 0 0,0-1 1,2 15-1,-1-22 24,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,2-1 0,42 1 319,-33-1-179,18 1 32,-2-2 1,2-1-1,0-1 1,-1-2-1,0 0 1,0-2-1,-1-2 0,0-1 1,-2 0-1,1-2 1,29-18-1,-52 27-122</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="529.14">6654 898 480,'0'0'12614,"-36"57"-9570,33-51-2960,1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,0 0 1,0 1-1,0-1 1,1 9-1,24-17 427,-20 0-429,-1-1 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1-1,0 1 1,2-6-1,10-24 507,-9 17-2976</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="914.63">7430 511 7283,'0'0'7086,"-23"-5"-6872,10 2-193,6 0-1,0 0-1,0 1 0,0 0 0,0 1 1,0 0-1,0 0 0,-1 1 0,1 0 1,0 0-1,0 1 0,-1-1 1,1 1-1,0 1 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,0 0 1,1 1-1,-11 7 0,-4 7 129,0 2 0,1 0 0,1 1-1,1 2 1,2-1 0,0 1 0,-15 30 0,22-35-88,2 0 1,0 0-1,0 1 0,2-1 1,0 1-1,1 0 1,1 0-1,1 0 0,0 2 1,2-2-1,2 25 1,-2-41-53,1 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,0-1-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-2 1,0 0-1,0 1 0,5-1 0,12 2-141,-1-2 0,1 0 0,24-3 0,-38 3-19,55-12-5027,-41 6 169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1240.08">7667 1117 4866,'0'0'9381,"-79"156"-7829,37-107-655,5-3-193,0-5-448,5-6-112,2-5-288,6-7-592,8-9-1185,4-6-1024,5-8-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1840.63">8331 608 5523,'0'0'7486,"-12"21"-6870,-142 286 1833,142-280-2375,8-14-26,0-1 0,-2 0 0,1-1 0,-2 0 0,1 1 1,-2-1-1,1-1 0,-2 1 0,-9 9 0,18-20-26,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1-2 0,1 2 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,1 1 0,0-23 408,1 12-417,1-1 0,0-1 0,1 2 0,1 0 0,0 0 0,0 0 0,1-1 0,9-11 0,65-81-82,9 6 21,-77 86 26,0 2 0,0 0 0,1 0-1,0 2 1,1 0 0,20-10 0,-31 16 8,0 0 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0 0 1,-2 0-1,2 0 1,0 0-1,6 2 1,-8-1 4,0 0 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0-1 0,0 1-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 3 1,0 0-3,1 0 0,-1-1 0,0 1 1,0 0-1,-1 0 0,0-1 0,0 2 0,0-1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,-4 5 0,1-3-15,0 0-1,-1-1 1,1 1 0,-2-1-1,2 0 1,-1 0 0,-1-1-1,-10 5 1,-16 7-328,-1 0 0,0-3-1,-44 12 1,77-24 375,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,-1 0-1,1-1 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,1 0 0,3 36 37,1-25-5,0 0-1,1 0 1,0-1 0,1 0 0,0 1 0,1-2-1,16 18 1,28 23-1121,0-12-3294,-29-30 9,-2-7-1879</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2262.66">8644 1085 6035,'0'0'9156,"0"-25"-10645</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2652.59">9012 752 4994,'0'0'3730,"-10"19"-2807,-29 50 340,-55 77 1,71-118-917,-29 43 179,48-65-311,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0 1 0,0-1-1,1 1 1,0 0 0,0 7 0,23-14 1436,3-1-1509,0-1 1,1-2-1,-1 0 0,-2-2 1,35-12-1,2-3-3016,-3-3-3427,-24 10 859</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2978.76">9306 444 5987,'0'0'10997,"12"-5"-10594,-9 4-388,0-1-4,0 1-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 0,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 1 1,0 1-1,0-2 0,0 1 1,0 0-1,0 1 1,2 2-1,7 8 42,-1 1 0,0 0 0,-1 1 0,-1 0-1,0 1 1,-1 0 0,-1 0 0,0 1 0,-2-1 0,0 2 0,4 23 0,-3-6 10,-3 0 0,-1-2 0,-1 2 1,-8 67-1,4-87-80,0-1 0,0 0 0,-2-1 0,1 2 0,-2-2 0,0-1 0,-1 1 0,0 0 0,-1-1 0,0 0 0,-1-1 0,0 0 0,-1 1 0,0-2 0,-1-1 0,0 0 0,-18 12 0,12-9-383,-1-2 1,-1 0-1,0-1 0,-36 11 0,34-13-770,0-1 0,-1-2 0,0-1 0,-29 2 0,-6-5-4690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3341.28">9623 103 4418,'0'0'10093,"0"-4"-7394,11 6-2368,10 10-295,-2 1 0,0 1-1,0 2 1,-1-1 0,-1 1 0,-1 1-1,0 1 1,-1 0 0,-2 1-1,1 1 1,-3 0 0,0 0 0,13 34-1,-7-11-22,-3 0-1,-1 2 0,-3-1 0,-1 1 1,4 90-1,-11-75 4,-3 1 1,-2 0-1,-3-1 0,-3 0 0,-20 74 1,19-102-29,-1 0 1,-2-1 0,0 1 0,-3-1-1,1-2 1,-3 0 0,-1-1 0,-2-1-1,0 0 1,-2-2 0,-27 24 0,18-23-172,-1-3 1,0-1 0,-3 0-1,0-3 1,0-1 0,-47 16-1,-19 1-1413,-115 23 0,48-23-2014,13-9-2659</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4890.18">412 294 4226,'0'0'4466,"-6"-11"-3975,-17-38 163,21 45-476,0-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1 0,1-1 0,1-6-1,0-1 2267,-5 38-2736,-137 571 1140,5-26 217,119-484-791,5-1 0,-2 91 0,11-173-357,-4-12-169,-4-13-793,-11-65-4761,14 26 1061</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7197.37">368 1 2673,'0'0'5349,"18"7"-4180,22 7-627,0-1 1,1-2-1,49 6 0,132 8-260,-115-14-103,307 35 145,397 40-127,-166-22-211,-221-20-66,-17-10 59,365 44 24,60 16-1012,-405-57 1036,385 29-449,-178-15-1144,-477-39 992,245 11-938,10-15-2458,3 0 3874,-390-10 568,-1-1-1,1-1 1,-1 0 0,0-3-1,38-14 1,40-10-666,-56 21-10,-1-1-1,-2-2 1,1-2 0,51-26-1,-84 36 213,0 1-1,0 0 1,1 0-1,0 1 1,-1 1-1,1 0 1,17-2-1,92 5-960,-54 0 691,-12 0-326,82 10 0,-115-8 716,-1 1 0,0 1-1,0 1 1,0 0-1,0 2 1,36 20-1,-55-25 32,-1 0 1,1 0-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,-1 5 1,2 7-33,-3 9 121,0-1 1,-2 0-1,0 1 0,-2-2 1,-1 0-1,0 1 1,-2-1-1,-14 23 0,-20 53 804,-24 89 104,-100 228 460,113-299-1422,8-16 70,-87 137 1,123-219 4,-2-1 0,-1 1 1,-20 17-1,30-30-192,-1-1-1,0 0 1,-1 0-1,1 1 1,-1-2-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-9 0-1,-70-5 324,-1-4 0,-134-32 0,86 15-199,-679-86-215,668 93 17,-794-162 120,-38-4 0,-193-19 64,768 120-150,365 76-37,-956-149-16,-31 128-152,323 112 402,655-77-236,-261 59 57,121-23 34,-271 37 372,420-74-338,-19 2 152,55-8-294,-13-4-7475,-2-14-339</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9740,8 +10090,8 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 374 3330,'0'0'6178,"3"-7"-4908,8-24-269,-6 70-25,-5 1005 419,-14-909-6770,17-165 2685,10-15-2691</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2523.77">39 0 3810,'0'0'2454,"-5"0"-2174,3 0-269,-11 0 184,18 1 116,43 3 405,86 9 347,256-7 0,-218-8-753,1789 25-805,-1940-23 493,2333 14-998,-2350-14 997,547-14-2370,0-1 2321,-207 10 35,473 21-326,-320 20 1399,31 4-1370,-244-25 160,-29-2-1042,197 22-364,266 30-735,-180 0 1099,-524-63 1553,52 6-507,-21-6 6795,-42-2-6499,-1 0-150,0 0 0,0 0 0,0-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 1,-1 0-1,3 2 0,5 13-32,-7-14 8,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1 2 0,0 16 134,-2 0 0,-1-1 0,0 1 0,-2 0 0,0-1-1,-10 27 1,0-6 205,-12 30-83,-16 77-1,-24 106 356,36-149 58,-32 209 0,59-278-447,-3 35 239,-4-1-1,-18 70 0,27-139-404,0 0 0,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,1 0 0,-2 0-1,-34 2 1047,31-3-944,-766-53 1372,-774-61-2035,1132 91 191,-846-48 270,290 56-109,583 14-105,230 1 282,-604 3-576,142 56 401,210-13-187,-1011 40-2008,1205-72 2123,-375 72 0,484-68 823,-120 4 0,-35 4 416,218-20-1012,0-1 0,1-2 0,-68-6 0,106 4-177,0-1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0-1 1,0 1-1,0-1 0,-4-4 0,4 4-327,-17-16-2642</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 381 3330,'0'0'6178,"3"-7"-4908,8-25-269,-6 72-25,-5 1024 419,-14-926-6770,17-169 2685,10-15-2691</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2523.77">39 0 3810,'0'0'2454,"-5"0"-2174,3 0-269,-11 0 184,18 1 116,43 3 405,86 9 347,256-7 0,-218-8-753,1789 26-805,-1940-24 493,2333 14-998,-2350-14 997,546-14-2370,1-1 2321,-207 9 35,473 23-326,-320 19 1399,31 5-1370,-244-25 160,-29-3-1042,197 22-364,266 32-735,-180-1 1099,-524-64 1553,52 6-507,-21-6 6795,-42-2-6499,-1 0-150,0 0 0,0 0 0,0-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 1,-1 0-1,3 2 0,5 14-32,-7-15 8,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1 2 0,0 17 134,-2-1 0,-1-1 0,0 2 0,-2-1 0,0 0-1,-10 26 1,0-5 205,-12 31-83,-16 77-1,-24 109 356,36-152 58,-32 213 0,59-283-447,-3 35 239,-4 0-1,-18 70 0,27-141-404,0 0 0,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,1 0 0,-2 0-1,-34 3 1047,31-5-944,-766-53 1372,-774-62-2035,1132 93 191,-846-50 270,290 58-109,584 14-105,229 1 282,-604 3-576,142 57 401,210-13-187,-1011 41-2008,1205-74 2123,-375 74 0,484-70 823,-120 4 0,-35 5 416,218-21-1012,0-1 0,1-2 0,-68-6 0,106 4-177,0-1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0-1 1,0 1-1,0-2 0,-4-3 0,4 4-327,-17-16-2642</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9769,7 +10119,7 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 4578,'0'0'2188,"6"27"-1759,62 304 927,162 1494 1946,-217-1698-3241,20 173 9,-20-216-154,36 122 0,-47-199 15,2 5-58,0-1 0,0 1 0,9 16 0,-12-27 12,0 1-1,-1-1 1,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,2 0-1,21-14-3165</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 4578,'0'0'2188,"6"27"-1759,62 309 927,162 1515 1946,-217-1722-3241,20 175 9,-20-218-154,36 123 0,-47-202 15,2 5-58,0-1 0,0 1 0,9 17 0,-12-28 12,0 1-1,-1-1 1,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,2 0-1,21-14-3165</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9826,7 +10176,168 @@
       <inkml:brushProperty name="color" value="#33CCFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 178 4530,'0'0'328,"23"4"11,300 28 1891,455-26-1521,-164-4-615,915-35-598,-968-14-606,662-29 1937,-959 75-750,857-23 311,130-16-247,-64 62 102,704 39-99,-1155-39-208,417 21-43,390 29-624,452 46 8,-1290-68 523,717 67 426,-201-14-569,297-15 220,-1268-78-103,755 54-82,281 142 1530,-496-67-991,5-44-838,-343-75-1850,116 9 2244,685 28 2373,-746-30-2408,-241-9-704,319 30 1376,330 9-1670,-601-73 2241,-222 7-825,1 4-1,133 9 1,183 45 148,120 45-442,-183-18-3316,-324-71 3359,40 13 930,-18 9 2553,25-3-2038,-48-18-912,-1 1 1,27 13-1,-46-19-430,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 3 0,-1 45 62,0-33-85,1-9 0,-1 1-1,0-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-2 0 0,1 0 0,-5 8 0,-48 69 140,29-48-86,-199 256 20,3-4-114,50-12 587,12 6 0,-152 377 0,279-570-499,-42 184 0,43-138 22,33-135-50,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0 0,0 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,-1-1 1,-42-21 747,28 13-805,-88-36 157,-2 3 1,-141-35-1,127 48-119,-166-20-1,-130 8-45,250 27 40,-986-84-33,-1505-151 90,-555-88-94,267 149-390,2748 179 476,-1223-62-61,1229 60 39,-1802-67-593,1956 78 579,-1822 20-453,-319 51 173,1471-58 244,-99 3-7,424-4-7,-958 51-246,-2357 102-35,2262-204-10,922 20 418,276 14-60,-552 3-334,418 30 675,258-8 326,74-11-216,0-3 0,-68 4 0,106-10-503,1 3-1925,0-2 1744,0 0-1,1 0 1,-1 0 0,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,0 0-1,-17 10-3619</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 179 4530,'0'0'328,"23"4"11,300 29 1891,454-27-1521,-164-4-615,914-36-598,-967-13-606,662-29 1937,-958 75-750,855-24 311,131-15-247,-65 62 102,704 40-99,-1154-40-208,417 21-43,389 30-624,451 46 8,-1288-69 523,717 68 426,-202-14-569,297-15 220,-1266-79-103,754 54-82,280 144 1530,-495-68-991,5-44-838,-342-76-1850,115 9 2244,685 28 2373,-746-29-2408,-240-10-704,318 30 1376,330 10-1670,-601-74 2241,-221 6-825,1 5-1,133 9 1,182 46 148,121 45-442,-184-19-3316,-323-71 3359,40 13 930,-18 10 2553,25-4-2038,-48-18-912,-1 1 1,27 13-1,-46-19-430,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 3 0,-1 46 62,0-34-85,1-9 0,-1 1-1,0-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-2 0 0,1 0 0,-5 9 0,-48 68 140,29-47-86,-199 257 20,4-4-114,49-12 587,12 7 0,-152 379 0,280-574-499,-43 185 0,43-139 22,33-136-50,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0 0,0 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,-1-1 1,-42-21 747,28 13-805,-88-37 157,-2 4 1,-141-36-1,127 49-119,-165-20-1,-131 7-45,251 28 40,-986-84-33,-1503-153 90,-554-89-94,267 150-390,2744 181 476,-1221-62-61,1227 60 39,-1800-68-593,1954 79 579,-1819 20-453,-320 52 173,1470-59 244,-99 3-7,424-4-7,-958 52-246,-2353 102-35,2258-205-10,922 19 418,275 15-60,-551 3-334,418 31 675,257-9 326,74-11-216,0-3 0,-68 4 0,106-10-503,1 3-1925,0-2 1744,0 0-1,1 0 1,-1 0 0,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,0 0-1,-17 10-3619</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-24T14:48:53.414"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8 4 6035,'0'0'10405,"-7"-3"-10373,7 6-16,0 1-32,0 1-97,0 2-271,9 5-1409,6 0-2128,1 0-2722</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-24T14:48:59.857"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 473 3666,'0'0'6944,"1"-5"-6349,0-27 462,12 50 677,72 230-771,21 52-664,-105-298-725,6 15 1178,-5-10-7849,-4-24 883</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1632.77">28 87 5394,'-7'-16'2657,"7"16"-2592,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1 0,-6 59 377,3-36-372,1 0 0,1 0 0,1 0 0,1 0 0,4 26 0,-5-46-83,0 0 0,0 0-1,1-1 1,-1 1-1,1 0 1,-1 0 0,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0 0-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,2-1 0,1-1-24,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,6-6 1,-1-3-19,0-1 0,-1 0 1,0 0-1,-1 0 1,-1-1-1,0 0 1,-1 0-1,-1 0 1,0-1-1,-1 1 0,-1-1 1,0-21-1,-2 36 65,1-1-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,1 1 0,-1 0-1,0-1 1,0 1-1,1 0 1,-3 0-1,-60-4 146,58 4-150,4 0-16,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-2 4 1,3-5-141,0 1 1,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,2 2 0,13 7-3525</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2272.19">672 307 4162,'0'0'8972,"-2"12"-8249,-1 12-705,1 1-1,1 0 1,1 0 0,1-1-1,1 1 1,1-1 0,2 1-1,0-1 1,2 0-1,0-1 1,2 0 0,18 37-1,-27-59-48,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,12-21-232,3-46 492,-14 57-361,-1 5 127,9-34 20,-10 37-13,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,1-1 1,-1 1-1,2-1 0,1 1 15,1 1 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,5 3 0,10 8 122,0 1 0,17 16 0,-20-16-87,0-1-61,-4-3-23,0-1-1,1 0 0,15 9 1,-22-15-309,0-1 1,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0-1-1,1-1 1,-1 1 0,1-1 0,-1 0-1,8 0 1,13-5-2700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2892.01">1206 413 6115,'0'0'3460,"-17"17"-2876,-53 56-170,66-69-371,2 1-1,-1 0 1,0 0 0,1 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,1 1 0,0-1 0,0 1-1,3 8 1,-3-11-55,0 1-1,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,-1-1 1,1 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 0 1,8 1-1,-8-1-46,1 0 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,5-5 1,-1-2-14,-1 0 1,0-1-1,0 0 1,0 0 0,-2-1-1,1 0 1,-1 0 0,-1 0-1,0 0 1,0 0-1,-1 0 1,-1-1 0,0 1-1,0-1 1,-1 1 0,-1-1-1,-3-20 1,0 11 294,-1-1 0,-1 1 0,0 0 0,-2 1 0,0-1 0,-2 2 0,0-1 0,-18-25 1,28 45-201,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 1 0,-3 28 238,10 41-279,0-42 109,1 0-1,1-1 1,1 0 0,17 30 0,-20-43-59,0-1 1,1 0 0,1-1 0,0 0 0,1 0-1,0-1 1,1-1 0,0 1 0,22 14 0,-28-21-103,1-1 0,-1-1 0,1 1 0,0-1-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,9-3 0,-13 2 15,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0-7 0,0 3-24,0 0 1,-1-1-1,0 1 0,0 0 1,-1-1-1,0 1 0,-3-10 0,4 15 96,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 0 1,-4 0-1,5 33 582,1-25-521,1 1 0,0-1 0,0 0 0,1 0 0,0 1 0,1-2 0,6 17 0,-8-22-158,0 1-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1-1 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,4 0-1,2-4-1639,-1-14-880</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3313.9">1403 185 4834,'0'0'7252,"2"41"-8933,23-3-432,2 5-3522</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3796.05">1676 413 5939,'0'0'3713,"16"12"-3360,-8-6-315,2 0-20,-1 0 1,-1 0-1,1 1 0,-1 1 0,-1-1 0,1 1 1,-1 0-1,0 1 0,-1 0 0,0 0 0,-1 0 1,0 1-1,7 16 0,-9-11 157,0 0 1,-1 0-1,0 19 1,-2-28-96,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,-5 8 0,7-13-60,0-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,-6-14 235,2-26-72,5 38-147,-1-16 203,1 0-1,0 0 0,1 0 1,6-29-1,-5 38-196,1-1 0,1 1 0,0-1 0,0 1-1,1 0 1,0 0 0,0 1 0,1-1 0,12-13 0,-8 12-496,-1 1 0,2 0 0,-1 0 0,1 1 0,0 0 0,1 1 1,24-11-1,4 6-3358</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4264.98">2102 432 6163,'0'0'4837,"7"-18"-4755,54-126-516,-79 154 695,11-4-211,0 1 0,0-1 0,1 1 0,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-3 11 0,2-4 18,1 1 1,1 0-1,0 0 1,1 0 0,0 28-1,2-42-71,0 0 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,3 1 1,0-1-67,1 1 1,0-1-1,-1 0 0,1 0 0,-1-1 1,1 0-1,0 0 0,-1 0 0,0 0 1,1-1-1,9-4 0,-1-3-378,0-1 0,-1 0 0,0-1 0,12-13 0,1-1-842,-24 23 1261,-5 29 3381,2-25-3263,1 1 0,-1-1 1,1 0-1,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 1,1 4-1,0-5-98,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,0-1 1,1 1 0,-1 0-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,2-1 0,0 2-37,-1-2 1,1 1 0,0 0-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,4-4-1,-1 0 22,0-1 0,-1 1-1,0-1 1,0 0-1,-1 0 1,7-15 0,0-6 3,-1-1 0,11-58 0,-20 86 15,5-35-62,5-56 1,-10 79 78,-1 0 1,0-1-1,-1 1 0,-1 0 0,0 0 1,0 0-1,-8-20 0,-5 7 232,14 25-157,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-2 1 0,1 0-22,0 0 1,0 1-1,1 0 1,-1-1-1,0 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1 2 1,0 4 78,0 38 92,1-1 0,3 1 1,2-1-1,24 81 0,-20-90-823,2-1 1,2-1-1,30 52 0,-25-58-1902,-4-18-856</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4265.98">2360 370 13382,'0'0'1697,"130"-56"-1697,-62 30-1953,5 3-2465</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4709.78">2944 382 10789,'0'0'5378,"77"-48"-5137,-26 15-129,3 4-112,-7 2-112,-3 4-145,-11 8-527,-8 6-80,-8 8-673,-11 1-1601</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5160.29">3087 155 9092,'0'0'3909,"14"-1"-3664,4-1-190,1 0 1,-1 1-1,1 1 0,0 1 1,-1 1-1,1 0 1,25 7-1,-33-5-43,0 1-1,-1 0 1,1 0-1,-1 1 1,0 0 0,-1 1-1,0 0 1,0 1-1,0 0 1,-1 0 0,13 16-1,-18-18 90,1-1 1,-1 1-1,0 0 0,0-1 0,-1 2 1,0-1-1,0 0 0,0 0 0,-1 0 1,0 1-1,0-1 0,-1 1 0,1-1 1,-1 1-1,-1-1 0,1 1 0,-1-1 1,0 0-1,-1 1 0,0-1 0,0 0 0,-4 10 1,0-5-89,-1 0-1,0 0 1,-1-1 0,0 1 0,-1-2 0,0 0-1,0 0 1,-1 0 0,0-1 0,-1-1 0,0 1-1,0-2 1,0 0 0,-21 8 0,16-12-2286,6-2-1991</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-24T14:49:12.437"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">401 34 816,'0'0'9565,"9"-20"-3693,-10 19-5847,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,-1 0 1,1-1 0,0 1-1,-1 0 1,-1 0-1,-30-1-41,31 1 16,-9-1-13,0 1 0,0 0-1,1 1 1,-1 0 0,0 1-1,0 0 1,1 1 0,0 0-1,-1 1 1,1 0 0,0 0-1,1 1 1,-1 0 0,1 1-1,0 0 1,0 1 0,1 0-1,-15 14 1,8-4 16,0 0 1,1 1-1,1 1 0,1 0 1,1 0-1,0 1 1,1 1-1,2-1 0,0 2 1,-6 22-1,10-20 61,0-1-1,1 0 1,1 1-1,1-1 1,2 1 0,0-1-1,1 1 1,8 30-1,-7-42 9,0-1 0,1 1-1,0-1 1,1 0 0,0 0-1,1 0 1,1-1 0,-1 0 0,2 0-1,-1-1 1,1 1 0,0-2-1,1 1 1,0-1 0,1-1-1,0 0 1,0 0 0,13 6-1,-16-10-52,0 0-1,0-1 1,0 0-1,0 0 0,1-1 1,-1 0-1,1 0 1,-1-1-1,1 0 1,0 0-1,-1 0 0,1-1 1,-1-1-1,11-2 1,-5 0 6,0 0 1,-1-1-1,1 0 1,-1-1-1,0-1 1,0 0-1,11-9 1,-13 8-70,-1 1-1,0-2 1,-1 1 0,15-19 0,-21 23 30,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1-1,0-1 1,-2-6 0,1 9 9,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,-2 1 0,-72-5-269,68 5 203,0 0-27,-32 2 93,40-2-4,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,0 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,37 1-494,-10-5 378,-1 0 1,-1-2 0,1-1-1,0-2 1,-1 0-1,0-1 1,27-14-1,-34 16 151,-4 0-35,-9 4 4,1-1 0,-1 1 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0 0 0,6 1 0,-10-1 12,0 1 0,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 1-1,0-1 1,0 1 0,2 33 251,-2-27-157,1 38 302,3-1 1,1 0 0,2 0 0,25 82 0,-23-110-3242,-2-36-3081,-7 15 5773,7-22-3798</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="453.32">670 186 6163,'0'0'5757,"-5"-8"-5112,3 4-564,3 6 146,21 42 535,-1 1 0,-3 1 0,-2 1 0,-2 0 0,12 66 0,-24-102-1030,-1 1 411,2 0 0,0-1 0,0 0 1,7 16-1,-9-24-334,1-1 1,-1 1-1,1 0 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,4 2 0,-4-2-269,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 1,2 0-1,14-1-3941</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1029.83">1201 161 3554,'0'0'5770,"-20"-13"-4124,-67-42-176,83 52-1411,-1 1 0,1-1-1,-1 1 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 1 1,0 0-1,0 1 1,0-1 0,0 1-1,-1 0 1,1 0-1,0 1 1,0-1-1,1 1 1,-1 0 0,0 1-1,1-1 1,-1 1-1,1 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,1 1 1,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1 6 1,1-4-70,1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,1 0-1,1 0 0,-1-1 1,5 13-1,-4-16-26,-1 0 0,1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,1 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,-1 0 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1-1-1,-1 1 1,4-1 0,-1 1-150,0-1 0,0 0 0,0 0-1,0-1 1,-1 1 0,1-1 0,0-1 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0-1,9-7 1,-6 2-12,0-1 0,0 0 0,0 0-1,-1-1 1,0 0 0,-1 0 0,7-16 0,-12 27 313,0-1 0,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,7 34 590,5 64 975,-7-50-878,2 0 0,2 0 0,28 88 0,-36-135-892,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,4 4 0,-4-6-389,-1 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,3 0 0,5-3-5244</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.83">1562 296 10789,'0'0'7523,"34"-13"-7523,4 0 208,6-10-95,2-1-113,-2-1-417,-2 2 337,-8 4-400,-11 9-720,-9 7-593</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1524.15">1592 414 8564,'0'0'9396,"-9"43"-9316,37-43-16,9 0-32,6-21-32,5-4-432,2-8-176,-4 4-625,-2 0-560,-8 1-528,-13 4-848,-14 5-1489</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1910.7">1565 88 9636,'0'0'2468,"25"-2"-2100,-1-1-309,33-1-23,59 1 0,-97 4-52,-1 1 0,1 0 0,-1 1 0,0 1 0,0 1 1,0 1-1,-1 0 0,0 1 0,0 1 0,-1 1 0,22 14 0,-30-17 153,0 0 1,0 1-1,-1 0 1,0 0-1,0 1 0,0 0 1,-1 0-1,-1 0 1,1 1-1,-1 0 0,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,-1 0-1,0 0 0,0 0 1,-1 0-1,0 1 1,-1-1-1,-1 11 0,0-12 41,-1 0 0,-1-1-1,1 1 1,-1-1-1,-1 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,0-1 0,0 0-1,-13 12 1,3-3-154,-2-1 1,1-1-1,-2 0 0,-20 12 1,14-15-2591,-1-7-4286,8-2-212</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-24T14:49:15.784"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 256 2993,'0'0'13457,"0"14"-12560,1 83-355,5 1 1,33 180-1,-33-253-508,-2-7-2,0 0-1,-1 1 1,1 26-1,-4-45-92,-1-25-849,-8 0 947,2 9-1649,5 4-3235,2 4 774</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="517.24">239 375 4866,'0'0'11331,"0"4"-10600,-3 18-480,0 1 1,-1 0-1,-2-1 1,-10 29-1,6-15-198,-4 12-216,-2-1 0,-2 0 0,-2-1 1,-30 51-1,49-109-1949,0 8 2066,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,2-3 0,-1 4 58,0-1 0,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 1 0,1-1 0,3 0 0,60-2 496,-54 3-392,0 1-8,0 0-1,-1 0 1,1 1 0,0 0 0,-1 1-1,1 1 1,-1 0 0,0 1 0,-1 0 0,1 0-1,-1 2 1,0-1 0,0 1 0,19 17 0,-13-13-1617,1-7-3447,-6-4-380</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1147.47">537 294 6035,'0'0'10258,"-2"7"-9391,0-1-738,1 1 1,0-1-1,0 1 1,1 0-1,0-1 1,0 1-1,1-1 1,0 1-1,0 0 1,4 12-1,29 77 713,-18-53-758,-1 0 7,-10-22-197,1-1 0,1 0-1,1-1 1,1 0-1,1 0 1,0-1-1,2 0 1,14 18-1,-23-33-323,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1-1-1,1 1 1,7-3 0,23-11-4588</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1148.47">894 329 7860,'0'0'8054,"-18"12"-6744,7-5-1126,5-3-125,0-1 1,0 1 0,0 0-1,0 0 1,1 0 0,0 1-1,0 0 1,0 0-1,1 0 1,-1 1 0,1-1-1,1 1 1,-1 0 0,1 0-1,0 1 1,0-1 0,1 1-1,0-1 1,-3 13 0,4-7-25,0 0 1,1 0 0,1 0 0,0 1-1,0-1 1,1 0 0,0 0 0,1-1-1,1 1 1,0 0 0,6 11 0,-7-17-164,0-1 0,1 0 0,0 1 0,0-1 1,0 0-1,1-1 0,-1 1 0,1-1 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,1 0 1,0-1-1,0 1 0,0-1 0,1-1 0,-1 1 0,0-1 1,1 0-1,11 0 0,-15 0-63,0-1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0-1-1,4-2 1,-6 2 166,1 1 0,0-1 0,-1 0-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0 0,-2-1 0,1 1-1,0 0 1,-1-5 0,0 6 96,0-1 0,0 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 1,1 0-1,-3 1 0,-68 0 1734,67 0-1672,-6 0 26,-1 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,1 1 0,-17 13 1,26-20-207,0 1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,0 1-1,-1 2 1,1-4-70,0 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,1 0-1,34 2-4849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1664.24">1152 241 10485,'0'0'7843,"-40"22"-10804,55 18-945,4 10-3569</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1665.24">1306 669 5987,'0'0'8500,"-26"14"-13062,31-18-689</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2202.19">1606 177 6163,'0'0'9988,"-11"71"-9043,20-25 303,1 9-575,-3 7-33,3 2-176,0-6-432,-1-8-32,3-10-224,1-10-1281,4-12-1376,2-13-2593,4-5-3122</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2203.19">1973 40 112,'0'0'7510,"-21"-7"-5349,-65-19-995,82 25-1019,1 0 1,0 0-1,-1 1 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,0 1 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 4-1,-3 7-51,1 0 0,1-1 0,0 1 0,0 0-1,2 0 1,1 23 0,0-34-143,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,4 1 1,-1-1-129,0 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,-1-1-1,1-1 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0-1 0,0 0-1,8-7 1,-2-4 214,-1 1 0,-1-1 0,0-1 0,0 0-1,-2 0 1,0-1 0,-1 1 0,6-22 0,6-15 2162,-18 52-2161,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,1 1 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1 0 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1 0,1 0-1,16 30 310,-15-27-312,111 279-8,-100-241-47,-1 0 0,-3 0 0,-1 1 0,-2 0 0,0 45 0,-6-83 37,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,-1 0 0,1 0 0,-1-1-1,0 1 1,0-1 0,-1 1 0,1-1 0,-1 0 0,0 1-1,0-1 1,0-1 0,-1 1 0,1 0 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 0 0,-1 1-1,1-2 1,-1 1 0,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,-6 1 0,3-1-291,1 0 0,0 0 1,0-1-1,-1 0 0,1-1 1,0 1-1,0-1 0,0 0 0,0-1 1,1 0-1,-1 0 0,1-1 0,0 1 1,-1-1-1,2-1 0,-1 1 0,-8-9 1,-16-10-2805,-2 3-2324</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-24T14:49:20.268"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33 484 6563,'0'0'5752,"-5"0"-5096,-17 2-312,17-2-191,19-3 463,63-27-17,-2-5 0,136-84-1,-140 77-521,354-200-139,-418 240-90,-23 15 101,-47 32 45,23-16-108,-25 18-41,-81 62-58,-233 130 0,379-239 208,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,23-4-101,15-13 197,-1-1 1,-1-2 0,57-41 0,-19 12-75,81-47 87,212-138 51,-502 325 309,-472 414-395,607-502-447,10-6 232,15-8 27,310-233 107,-235 166 54,65-60 291,-164 137-117,-8 1-101,1 1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 2-1,0-1 1,0 0 0,-10 7 0,-48 37-312,43-30 287,3-2-90,-68 49 118,3 4 0,-106 109 1,198-175-1037,-1-1 846,0-1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0-1 0,12-7 0,66-49-25,-56 38-4,6-3-19,19-14 129,-1-2 0,91-91 0,-142 129 119,-9 4-28,-1 0-1,0 0 1,0 0 0,1 1 0,-1 0-1,1 1 1,0 0 0,-12 6 0,-52 35-2442,63-39 1553,2-1-3368</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11157,9 +11668,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:J1000"/>
+  <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11170,48 +11683,48 @@
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="31" t="s">
         <v>60</v>
       </c>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="33"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
@@ -11222,34 +11735,89 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="49">
+        <v>5</v>
+      </c>
+      <c r="G13" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">INDIRECT("F13")</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>F13</f>
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f ca="1">SUM(INDIRECT(G19))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20150,8 +20718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
